--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_15_26.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_15_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>501991.8986952244</v>
+        <v>501178.4514833367</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2927877.345954294</v>
+        <v>2927877.345954291</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.029273655</v>
+        <v>504792.0292736553</v>
       </c>
     </row>
     <row r="9">
@@ -1370,13 +1370,13 @@
         <v>301.1059717842871</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>289.1172887419689</v>
       </c>
       <c r="D11" t="n">
-        <v>52.49994366163273</v>
+        <v>280.0985927864969</v>
       </c>
       <c r="E11" t="n">
-        <v>301.8407303564023</v>
+        <v>181.6367921704659</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>234.9781829577617</v>
       </c>
       <c r="I11" t="n">
-        <v>61.32070768241301</v>
+        <v>61.32070768241306</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.08218037545159</v>
+        <v>84.08218037545163</v>
       </c>
       <c r="T11" t="n">
         <v>130.7597296842794</v>
       </c>
       <c r="U11" t="n">
-        <v>163.2962484526289</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>244.6123490244662</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>269.9124485024231</v>
       </c>
       <c r="X11" t="n">
-        <v>289.2127067351697</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>300.6093045313685</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I12" t="n">
-        <v>57.7733452031032</v>
+        <v>57.77334520310322</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>41.28834215945685</v>
+        <v>41.28834215945687</v>
       </c>
       <c r="S12" t="n">
         <v>145.9169861849574</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>92.72268265898418</v>
       </c>
       <c r="C13" t="n">
-        <v>78.92267750438464</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>62.54404190196306</v>
       </c>
       <c r="E13" t="n">
-        <v>61.49179175774248</v>
+        <v>61.4917917577425</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>61.95871608592881</v>
       </c>
       <c r="G13" t="n">
-        <v>77.99174215033068</v>
+        <v>77.99174215033071</v>
       </c>
       <c r="H13" t="n">
-        <v>66.63306124366581</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>48.16276991271688</v>
+        <v>48.16276991271693</v>
       </c>
       <c r="S13" t="n">
         <v>118.3637676193849</v>
@@ -1585,16 +1585,16 @@
         <v>195.3080224141331</v>
       </c>
       <c r="V13" t="n">
-        <v>169.1308190586097</v>
+        <v>169.1308190586098</v>
       </c>
       <c r="W13" t="n">
-        <v>136.1202185923204</v>
+        <v>194.297705129223</v>
       </c>
       <c r="X13" t="n">
         <v>139.9428071250261</v>
       </c>
       <c r="Y13" t="n">
-        <v>130.8176748810938</v>
+        <v>0.970486445364287</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>301.1059717842871</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>289.1172887419689</v>
       </c>
       <c r="D14" t="n">
-        <v>261.0020390856959</v>
+        <v>280.0985927864969</v>
       </c>
       <c r="E14" t="n">
-        <v>301.8407303564023</v>
+        <v>301.8407303564024</v>
       </c>
       <c r="F14" t="n">
-        <v>321.0125464443795</v>
+        <v>321.0125464443796</v>
       </c>
       <c r="G14" t="n">
-        <v>322.4070376922377</v>
+        <v>322.4070376922379</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>234.9781829577618</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>61.32070768241309</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.08218037545159</v>
+        <v>50.58786757921627</v>
       </c>
       <c r="T14" t="n">
-        <v>130.7597296842794</v>
+        <v>130.7597296842795</v>
       </c>
       <c r="U14" t="n">
-        <v>163.2962484526289</v>
+        <v>163.296248452629</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>269.9124485024231</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>300.6093045313685</v>
+        <v>300.6093045313686</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I15" t="n">
-        <v>57.7733452031032</v>
+        <v>57.77334520310382</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>41.28834215945722</v>
+        <v>41.28834215945685</v>
       </c>
       <c r="S15" t="n">
         <v>145.9169861849574</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92.72268265898416</v>
+        <v>42.17720898631413</v>
       </c>
       <c r="C16" t="n">
-        <v>78.92267750438464</v>
+        <v>78.92267750438472</v>
       </c>
       <c r="D16" t="n">
-        <v>62.54404190196303</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>61.49179175774248</v>
+        <v>61.49179175774256</v>
       </c>
       <c r="F16" t="n">
-        <v>20.82000347551061</v>
+        <v>61.95871608592887</v>
       </c>
       <c r="G16" t="n">
-        <v>77.99174215033068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>66.63306124366581</v>
+        <v>66.63306124366589</v>
       </c>
       <c r="I16" t="n">
-        <v>46.49600542227648</v>
+        <v>46.49600542227656</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>48.16276991271688</v>
+        <v>48.16276991271697</v>
       </c>
       <c r="S16" t="n">
-        <v>118.3637676193849</v>
+        <v>118.363767619385</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>140.8174128706117</v>
       </c>
       <c r="U16" t="n">
-        <v>195.3080224141331</v>
+        <v>195.3080224141332</v>
       </c>
       <c r="V16" t="n">
-        <v>169.1308190586097</v>
+        <v>169.1308190586098</v>
       </c>
       <c r="W16" t="n">
-        <v>194.297705129223</v>
+        <v>194.2977051292231</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>139.9428071250262</v>
       </c>
       <c r="Y16" t="n">
-        <v>130.8176748810938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>224.1761802728465</v>
+        <v>224.1761802728466</v>
       </c>
       <c r="C17" t="n">
-        <v>212.1874972305282</v>
+        <v>212.1874972305283</v>
       </c>
       <c r="D17" t="n">
-        <v>203.1688012750562</v>
+        <v>203.1688012750563</v>
       </c>
       <c r="E17" t="n">
-        <v>224.9109388449617</v>
+        <v>224.9109388449618</v>
       </c>
       <c r="F17" t="n">
-        <v>244.0827549329389</v>
+        <v>244.082754932939</v>
       </c>
       <c r="G17" t="n">
         <v>245.4772461807972</v>
       </c>
       <c r="H17" t="n">
-        <v>158.0483914463211</v>
+        <v>158.0483914463212</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.152388864010996</v>
+        <v>7.152388864011053</v>
       </c>
       <c r="T17" t="n">
-        <v>53.82993817283884</v>
+        <v>53.82993817283889</v>
       </c>
       <c r="U17" t="n">
-        <v>86.3664569411883</v>
+        <v>86.36645694118835</v>
       </c>
       <c r="V17" t="n">
-        <v>167.6825575130256</v>
+        <v>167.6825575130257</v>
       </c>
       <c r="W17" t="n">
-        <v>192.9826569909825</v>
+        <v>192.9826569909826</v>
       </c>
       <c r="X17" t="n">
-        <v>212.2829152237291</v>
+        <v>212.2829152237292</v>
       </c>
       <c r="Y17" t="n">
-        <v>223.6795130199279</v>
+        <v>223.679513019928</v>
       </c>
     </row>
     <row r="18">
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.79289114754357</v>
+        <v>15.79289114754363</v>
       </c>
       <c r="C19" t="n">
-        <v>1.992885992944053</v>
+        <v>1.99288599294411</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>6.534979289254043</v>
+        <v>1.061950638890148</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>41.43397610794432</v>
+        <v>41.43397610794438</v>
       </c>
       <c r="T19" t="n">
-        <v>63.887621359171</v>
+        <v>63.88762135917106</v>
       </c>
       <c r="U19" t="n">
-        <v>118.3782309026925</v>
+        <v>118.3782309026926</v>
       </c>
       <c r="V19" t="n">
-        <v>92.20102754716916</v>
+        <v>92.20102754716922</v>
       </c>
       <c r="W19" t="n">
-        <v>117.3679136177824</v>
+        <v>117.3679136177825</v>
       </c>
       <c r="X19" t="n">
-        <v>63.01301561358554</v>
+        <v>218.9749683602434</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.88788336965322</v>
+        <v>53.88788336965328</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>224.1761802728465</v>
+        <v>224.1761802728466</v>
       </c>
       <c r="C20" t="n">
-        <v>212.1874972305282</v>
+        <v>212.1874972305283</v>
       </c>
       <c r="D20" t="n">
-        <v>203.1688012750562</v>
+        <v>203.1688012750563</v>
       </c>
       <c r="E20" t="n">
-        <v>224.9109388449617</v>
+        <v>224.9109388449618</v>
       </c>
       <c r="F20" t="n">
-        <v>244.0827549329389</v>
+        <v>244.082754932939</v>
       </c>
       <c r="G20" t="n">
         <v>245.4772461807972</v>
       </c>
       <c r="H20" t="n">
-        <v>158.0483914463211</v>
+        <v>158.0483914463212</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7.152388864010996</v>
+        <v>7.152388864011053</v>
       </c>
       <c r="T20" t="n">
-        <v>53.82993817283973</v>
+        <v>53.82993817283889</v>
       </c>
       <c r="U20" t="n">
-        <v>86.36645694118829</v>
+        <v>86.36645694118835</v>
       </c>
       <c r="V20" t="n">
-        <v>167.6825575130256</v>
+        <v>167.6825575130257</v>
       </c>
       <c r="W20" t="n">
-        <v>192.9826569909825</v>
+        <v>192.9826569909826</v>
       </c>
       <c r="X20" t="n">
-        <v>212.2829152237291</v>
+        <v>212.2829152237292</v>
       </c>
       <c r="Y20" t="n">
-        <v>223.6795130199279</v>
+        <v>223.679513019928</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I21" t="n">
-        <v>57.77334520310382</v>
+        <v>57.7733452031032</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>41.28834215945685</v>
+        <v>41.28834215945722</v>
       </c>
       <c r="S21" t="n">
         <v>145.9169861849574</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.79289114754357</v>
+        <v>15.79289114754363</v>
       </c>
       <c r="C22" t="n">
-        <v>1.992885992944053</v>
+        <v>1.99288599294411</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.061950638890091</v>
+        <v>1.061950638890148</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>41.43397610794432</v>
+        <v>41.43397610794438</v>
       </c>
       <c r="T22" t="n">
-        <v>63.887621359171</v>
+        <v>63.88762135917106</v>
       </c>
       <c r="U22" t="n">
-        <v>118.3782309026925</v>
+        <v>118.3782309026926</v>
       </c>
       <c r="V22" t="n">
-        <v>92.20102754716916</v>
+        <v>92.20102754716922</v>
       </c>
       <c r="W22" t="n">
-        <v>117.3679136177824</v>
+        <v>117.3679136177825</v>
       </c>
       <c r="X22" t="n">
-        <v>63.01301561358554</v>
+        <v>63.01301561358559</v>
       </c>
       <c r="Y22" t="n">
-        <v>58.89398769183089</v>
+        <v>209.8498361163111</v>
       </c>
     </row>
     <row r="23">
@@ -2318,13 +2318,13 @@
         <v>224.1761802728465</v>
       </c>
       <c r="C23" t="n">
-        <v>212.1874972305282</v>
+        <v>212.1874972305283</v>
       </c>
       <c r="D23" t="n">
         <v>203.1688012750562</v>
       </c>
       <c r="E23" t="n">
-        <v>224.9109388449617</v>
+        <v>224.9109388449618</v>
       </c>
       <c r="F23" t="n">
         <v>244.0827549329389</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>7.152388864010996</v>
+        <v>7.152388864011025</v>
       </c>
       <c r="T23" t="n">
-        <v>53.82993817283883</v>
+        <v>53.82993817283886</v>
       </c>
       <c r="U23" t="n">
-        <v>86.36645694118829</v>
+        <v>86.36645694118832</v>
       </c>
       <c r="V23" t="n">
         <v>167.6825575130256</v>
@@ -2381,7 +2381,7 @@
         <v>192.9826569909825</v>
       </c>
       <c r="X23" t="n">
-        <v>212.2829152237291</v>
+        <v>212.2829152237292</v>
       </c>
       <c r="Y23" t="n">
         <v>223.6795130199279</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.79289114754357</v>
+        <v>15.7928911475436</v>
       </c>
       <c r="C25" t="n">
-        <v>1.992885992944053</v>
+        <v>1.992885992944082</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>139.109059881147</v>
+        <v>157.0239033855483</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2518,31 +2518,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.91484350440139</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>41.43397610794432</v>
+        <v>41.43397610794435</v>
       </c>
       <c r="T25" t="n">
-        <v>63.887621359171</v>
+        <v>63.88762135917103</v>
       </c>
       <c r="U25" t="n">
-        <v>118.3782309026925</v>
+        <v>118.3782309026926</v>
       </c>
       <c r="V25" t="n">
-        <v>92.20102754716916</v>
+        <v>92.20102754716919</v>
       </c>
       <c r="W25" t="n">
         <v>117.3679136177824</v>
       </c>
       <c r="X25" t="n">
-        <v>63.01301561358554</v>
+        <v>63.01301561358557</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.88788336965322</v>
+        <v>53.88788336965325</v>
       </c>
     </row>
     <row r="26">
@@ -2561,19 +2561,19 @@
         <v>266.5965738690924</v>
       </c>
       <c r="E26" t="n">
-        <v>288.3387114389979</v>
+        <v>288.338711438998</v>
       </c>
       <c r="F26" t="n">
         <v>307.5105275269751</v>
       </c>
       <c r="G26" t="n">
-        <v>308.9050187748333</v>
+        <v>308.9050187748334</v>
       </c>
       <c r="H26" t="n">
         <v>221.4761640403573</v>
       </c>
       <c r="I26" t="n">
-        <v>47.81868876500859</v>
+        <v>47.8186887650086</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.58016145804716</v>
+        <v>70.58016145804717</v>
       </c>
       <c r="T26" t="n">
         <v>117.257710766875</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.22066374157974</v>
+        <v>79.22066374157976</v>
       </c>
       <c r="C28" t="n">
-        <v>65.42065858698022</v>
+        <v>65.42065858698024</v>
       </c>
       <c r="D28" t="n">
-        <v>49.04202298455861</v>
+        <v>49.04202298455863</v>
       </c>
       <c r="E28" t="n">
-        <v>47.98977284033806</v>
+        <v>47.98977284033808</v>
       </c>
       <c r="F28" t="n">
-        <v>48.45669716852437</v>
+        <v>48.45669716852439</v>
       </c>
       <c r="G28" t="n">
-        <v>64.48972323292627</v>
+        <v>64.48972323292628</v>
       </c>
       <c r="H28" t="n">
-        <v>53.13104232626139</v>
+        <v>53.13104232626141</v>
       </c>
       <c r="I28" t="n">
-        <v>32.99398650487205</v>
+        <v>32.99398650487207</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66075099531245</v>
+        <v>34.66075099531247</v>
       </c>
       <c r="S28" t="n">
         <v>104.8617487019805</v>
       </c>
       <c r="T28" t="n">
-        <v>127.3153939532071</v>
+        <v>127.3153939532072</v>
       </c>
       <c r="U28" t="n">
         <v>181.8060034967287</v>
@@ -2810,7 +2810,7 @@
         <v>221.4761640403573</v>
       </c>
       <c r="I29" t="n">
-        <v>47.81868876500854</v>
+        <v>47.81868876500856</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.58016145804714</v>
+        <v>70.58016145804983</v>
       </c>
       <c r="T29" t="n">
         <v>117.257710766875</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>41.28834215945683</v>
+        <v>41.28834215945685</v>
       </c>
       <c r="S30" t="n">
         <v>145.9169861849574</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.22066374157973</v>
+        <v>79.22066374157971</v>
       </c>
       <c r="C31" t="n">
-        <v>65.42065858698021</v>
+        <v>65.4206585869802</v>
       </c>
       <c r="D31" t="n">
-        <v>49.0420229845586</v>
+        <v>49.04202298455859</v>
       </c>
       <c r="E31" t="n">
-        <v>47.98977284033805</v>
+        <v>47.98977284033803</v>
       </c>
       <c r="F31" t="n">
-        <v>48.45669716852436</v>
+        <v>48.45669716852434</v>
       </c>
       <c r="G31" t="n">
-        <v>64.48972323292625</v>
+        <v>64.48972323292624</v>
       </c>
       <c r="H31" t="n">
-        <v>53.13104232626138</v>
+        <v>53.13104232626137</v>
       </c>
       <c r="I31" t="n">
-        <v>32.99398650487204</v>
+        <v>32.99398650487203</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3035,19 +3035,19 @@
         <v>266.5965738690924</v>
       </c>
       <c r="E32" t="n">
-        <v>288.3387114389978</v>
+        <v>288.3387114389979</v>
       </c>
       <c r="F32" t="n">
-        <v>307.510527526975</v>
+        <v>307.5105275269751</v>
       </c>
       <c r="G32" t="n">
         <v>308.9050187748333</v>
       </c>
       <c r="H32" t="n">
-        <v>221.4761640403572</v>
+        <v>221.4761640403573</v>
       </c>
       <c r="I32" t="n">
-        <v>47.81868876500855</v>
+        <v>47.81868876500857</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.58016145804712</v>
+        <v>70.58016145804714</v>
       </c>
       <c r="T32" t="n">
         <v>117.257710766875</v>
@@ -3086,16 +3086,16 @@
         <v>149.7942295352244</v>
       </c>
       <c r="V32" t="n">
-        <v>231.1103301070617</v>
+        <v>231.1103301070618</v>
       </c>
       <c r="W32" t="n">
-        <v>256.4104295850186</v>
+        <v>256.4104295850187</v>
       </c>
       <c r="X32" t="n">
-        <v>275.7106878177652</v>
+        <v>275.7106878177653</v>
       </c>
       <c r="Y32" t="n">
-        <v>287.107285613964</v>
+        <v>287.1072856139641</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.2206637415797</v>
+        <v>79.22066374157973</v>
       </c>
       <c r="C34" t="n">
-        <v>65.42065858698018</v>
+        <v>65.42065858698021</v>
       </c>
       <c r="D34" t="n">
-        <v>49.04202298455857</v>
+        <v>49.0420229845586</v>
       </c>
       <c r="E34" t="n">
-        <v>47.98977284033802</v>
+        <v>47.98977284033805</v>
       </c>
       <c r="F34" t="n">
-        <v>48.45669716852433</v>
+        <v>48.45669716852436</v>
       </c>
       <c r="G34" t="n">
-        <v>64.48972323292622</v>
+        <v>64.48972323292625</v>
       </c>
       <c r="H34" t="n">
-        <v>53.13104232626135</v>
+        <v>53.13104232626138</v>
       </c>
       <c r="I34" t="n">
-        <v>32.99398650487202</v>
+        <v>32.99398650487205</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,22 +3232,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66075099531243</v>
+        <v>34.66075099531245</v>
       </c>
       <c r="S34" t="n">
-        <v>104.8617487019804</v>
+        <v>104.8617487019805</v>
       </c>
       <c r="T34" t="n">
         <v>127.3153939532071</v>
       </c>
       <c r="U34" t="n">
-        <v>181.8060034967286</v>
+        <v>181.8060034967287</v>
       </c>
       <c r="V34" t="n">
         <v>155.6288001412053</v>
       </c>
       <c r="W34" t="n">
-        <v>180.7956862118185</v>
+        <v>180.7956862118186</v>
       </c>
       <c r="X34" t="n">
         <v>126.4407882076217</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>237.5163481499652</v>
+        <v>237.5163481499651</v>
       </c>
       <c r="C35" t="n">
-        <v>225.527665107647</v>
+        <v>225.5276651076468</v>
       </c>
       <c r="D35" t="n">
-        <v>216.508969152175</v>
+        <v>216.5089691521748</v>
       </c>
       <c r="E35" t="n">
-        <v>238.2511067220805</v>
+        <v>238.2511067220803</v>
       </c>
       <c r="F35" t="n">
-        <v>257.4229228100577</v>
+        <v>257.4229228100575</v>
       </c>
       <c r="G35" t="n">
-        <v>258.8174140579159</v>
+        <v>258.8174140579157</v>
       </c>
       <c r="H35" t="n">
-        <v>171.3885593234399</v>
+        <v>171.3885593234397</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>20.49255674112973</v>
+        <v>20.49255674112956</v>
       </c>
       <c r="T35" t="n">
-        <v>67.17010604995758</v>
+        <v>67.17010604995741</v>
       </c>
       <c r="U35" t="n">
-        <v>99.70662481830703</v>
+        <v>99.70662481830686</v>
       </c>
       <c r="V35" t="n">
-        <v>181.0227253901444</v>
+        <v>181.0227253901442</v>
       </c>
       <c r="W35" t="n">
-        <v>206.3228248681013</v>
+        <v>206.3228248681011</v>
       </c>
       <c r="X35" t="n">
-        <v>225.6230831008479</v>
+        <v>225.6230831008477</v>
       </c>
       <c r="Y35" t="n">
-        <v>237.0196808970466</v>
+        <v>237.0196808970465</v>
       </c>
     </row>
     <row r="36">
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.13305902466232</v>
+        <v>29.13305902466215</v>
       </c>
       <c r="C37" t="n">
-        <v>15.3330538700628</v>
+        <v>15.33305387006263</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>14.40211851600884</v>
+        <v>14.40211851600866</v>
       </c>
       <c r="H37" t="n">
-        <v>3.043437609343969</v>
+        <v>3.043437609343799</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>19.5168363661287</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>74.29098035119014</v>
+        <v>54.7741439850629</v>
       </c>
       <c r="T37" t="n">
-        <v>77.22778923628974</v>
+        <v>77.22778923628957</v>
       </c>
       <c r="U37" t="n">
-        <v>131.7183987798113</v>
+        <v>131.7183987798111</v>
       </c>
       <c r="V37" t="n">
-        <v>105.5411954242879</v>
+        <v>105.5411954242877</v>
       </c>
       <c r="W37" t="n">
-        <v>130.7080814949012</v>
+        <v>130.708081494901</v>
       </c>
       <c r="X37" t="n">
-        <v>76.35318349070428</v>
+        <v>76.35318349070411</v>
       </c>
       <c r="Y37" t="n">
-        <v>67.22805124677197</v>
+        <v>67.2280512467718</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>237.5163481499652</v>
+        <v>237.5163481499651</v>
       </c>
       <c r="C38" t="n">
-        <v>225.527665107647</v>
+        <v>225.5276651076468</v>
       </c>
       <c r="D38" t="n">
-        <v>216.508969152175</v>
+        <v>216.5089691521748</v>
       </c>
       <c r="E38" t="n">
-        <v>238.2511067220805</v>
+        <v>238.2511067220803</v>
       </c>
       <c r="F38" t="n">
-        <v>257.4229228100577</v>
+        <v>257.4229228100575</v>
       </c>
       <c r="G38" t="n">
-        <v>258.8174140579159</v>
+        <v>258.8174140579157</v>
       </c>
       <c r="H38" t="n">
-        <v>171.3885593234399</v>
+        <v>171.3885593234397</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>20.49255674112973</v>
+        <v>20.49255674112957</v>
       </c>
       <c r="T38" t="n">
-        <v>67.17010604995758</v>
+        <v>67.17010604995741</v>
       </c>
       <c r="U38" t="n">
-        <v>99.70662481830703</v>
+        <v>99.70662481830686</v>
       </c>
       <c r="V38" t="n">
-        <v>181.0227253901444</v>
+        <v>181.0227253901442</v>
       </c>
       <c r="W38" t="n">
-        <v>206.3228248681013</v>
+        <v>206.3228248681011</v>
       </c>
       <c r="X38" t="n">
-        <v>225.6230831008479</v>
+        <v>225.6230831008477</v>
       </c>
       <c r="Y38" t="n">
-        <v>237.0196808970466</v>
+        <v>237.0196808970465</v>
       </c>
     </row>
     <row r="39">
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.13305902466232</v>
+        <v>29.13305902466215</v>
       </c>
       <c r="C40" t="n">
-        <v>15.3330538700628</v>
+        <v>15.33305387006263</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>14.40211851600884</v>
+        <v>14.40211851600866</v>
       </c>
       <c r="H40" t="n">
-        <v>3.043437609343969</v>
+        <v>3.043437609343799</v>
       </c>
       <c r="I40" t="n">
-        <v>19.51683636612711</v>
+        <v>1.601992861727332</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3703,31 +3703,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>17.91484350440139</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>54.77414398506307</v>
+        <v>54.7741439850629</v>
       </c>
       <c r="T40" t="n">
-        <v>77.22778923628974</v>
+        <v>77.22778923628957</v>
       </c>
       <c r="U40" t="n">
-        <v>131.7183987798113</v>
+        <v>131.7183987798111</v>
       </c>
       <c r="V40" t="n">
-        <v>105.5411954242879</v>
+        <v>105.5411954242877</v>
       </c>
       <c r="W40" t="n">
-        <v>130.7080814949012</v>
+        <v>130.708081494901</v>
       </c>
       <c r="X40" t="n">
-        <v>76.35318349070428</v>
+        <v>76.35318349070411</v>
       </c>
       <c r="Y40" t="n">
-        <v>67.22805124677197</v>
+        <v>67.2280512467718</v>
       </c>
     </row>
     <row r="41">
@@ -3737,22 +3737,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>237.5163481499652</v>
+        <v>237.5163481499651</v>
       </c>
       <c r="C41" t="n">
-        <v>225.527665107647</v>
+        <v>225.5276651076469</v>
       </c>
       <c r="D41" t="n">
-        <v>216.5089691521749</v>
+        <v>216.5089691521748</v>
       </c>
       <c r="E41" t="n">
-        <v>238.2511067220805</v>
+        <v>238.2511067220804</v>
       </c>
       <c r="F41" t="n">
         <v>257.4229228100576</v>
       </c>
       <c r="G41" t="n">
-        <v>258.8174140579159</v>
+        <v>258.8174140579158</v>
       </c>
       <c r="H41" t="n">
         <v>171.3885593234398</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>20.4925567411297</v>
+        <v>20.49255674112963</v>
       </c>
       <c r="T41" t="n">
-        <v>67.17010604995755</v>
+        <v>67.17010604995747</v>
       </c>
       <c r="U41" t="n">
-        <v>99.70662481830701</v>
+        <v>99.70662481830692</v>
       </c>
       <c r="V41" t="n">
-        <v>181.0227253901443</v>
+        <v>181.0227253901442</v>
       </c>
       <c r="W41" t="n">
         <v>206.3228248681012</v>
       </c>
       <c r="X41" t="n">
-        <v>225.6230831008479</v>
+        <v>225.6230831008478</v>
       </c>
       <c r="Y41" t="n">
-        <v>237.0196808970466</v>
+        <v>237.0196808970465</v>
       </c>
     </row>
     <row r="42">
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.13305902466229</v>
+        <v>29.1330590246622</v>
       </c>
       <c r="C43" t="n">
-        <v>15.33305387006277</v>
+        <v>15.33305387006268</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,16 +3910,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>14.40211851600881</v>
+        <v>14.40211851600872</v>
       </c>
       <c r="H43" t="n">
-        <v>3.043437609343941</v>
+        <v>3.043437609343856</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>19.51683636612819</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>54.77414398506304</v>
+        <v>54.77414398506296</v>
       </c>
       <c r="T43" t="n">
-        <v>96.74462560241707</v>
+        <v>77.22778923628962</v>
       </c>
       <c r="U43" t="n">
-        <v>131.7183987798112</v>
+        <v>131.7183987798111</v>
       </c>
       <c r="V43" t="n">
-        <v>105.5411954242879</v>
+        <v>105.5411954242878</v>
       </c>
       <c r="W43" t="n">
         <v>130.7080814949011</v>
       </c>
       <c r="X43" t="n">
-        <v>76.35318349070425</v>
+        <v>76.35318349070417</v>
       </c>
       <c r="Y43" t="n">
-        <v>67.22805124677194</v>
+        <v>67.22805124677186</v>
       </c>
     </row>
     <row r="44">
@@ -3974,22 +3974,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>237.5163481499652</v>
+        <v>237.5163481499651</v>
       </c>
       <c r="C44" t="n">
-        <v>225.527665107647</v>
+        <v>225.5276651076469</v>
       </c>
       <c r="D44" t="n">
-        <v>216.5089691521751</v>
+        <v>216.5089691521748</v>
       </c>
       <c r="E44" t="n">
-        <v>238.2511067220805</v>
+        <v>238.2511067220804</v>
       </c>
       <c r="F44" t="n">
         <v>257.4229228100576</v>
       </c>
       <c r="G44" t="n">
-        <v>258.8174140579159</v>
+        <v>258.8174140579158</v>
       </c>
       <c r="H44" t="n">
         <v>171.3885593234398</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>20.49255674112971</v>
+        <v>20.49255674112962</v>
       </c>
       <c r="T44" t="n">
-        <v>67.17010604995755</v>
+        <v>67.17010604995747</v>
       </c>
       <c r="U44" t="n">
-        <v>99.70662481830701</v>
+        <v>99.70662481830692</v>
       </c>
       <c r="V44" t="n">
-        <v>181.0227253901443</v>
+        <v>181.0227253901461</v>
       </c>
       <c r="W44" t="n">
         <v>206.3228248681012</v>
       </c>
       <c r="X44" t="n">
-        <v>225.6230831008479</v>
+        <v>225.6230831008478</v>
       </c>
       <c r="Y44" t="n">
-        <v>237.0196808970466</v>
+        <v>237.0196808970465</v>
       </c>
     </row>
     <row r="45">
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.13305902466229</v>
+        <v>29.1330590246622</v>
       </c>
       <c r="C46" t="n">
-        <v>15.33305387006277</v>
+        <v>34.84989023619108</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>14.40211851600881</v>
+        <v>14.40211851600872</v>
       </c>
       <c r="H46" t="n">
-        <v>3.043437609343941</v>
+        <v>3.043437609343856</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>54.77414398506304</v>
+        <v>54.77414398506296</v>
       </c>
       <c r="T46" t="n">
-        <v>77.22778923628971</v>
+        <v>77.22778923628962</v>
       </c>
       <c r="U46" t="n">
-        <v>151.2352351459385</v>
+        <v>131.7183987798111</v>
       </c>
       <c r="V46" t="n">
-        <v>105.5411954242879</v>
+        <v>105.5411954242878</v>
       </c>
       <c r="W46" t="n">
         <v>130.7080814949011</v>
       </c>
       <c r="X46" t="n">
-        <v>76.35318349070425</v>
+        <v>76.35318349070417</v>
       </c>
       <c r="Y46" t="n">
-        <v>67.22805124677194</v>
+        <v>67.22805124677186</v>
       </c>
     </row>
   </sheetData>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1033.504674336861</v>
+        <v>1434.021845731705</v>
       </c>
       <c r="C11" t="n">
-        <v>1033.504674336861</v>
+        <v>1141.984180335777</v>
       </c>
       <c r="D11" t="n">
-        <v>980.4744282139987</v>
+        <v>859.0563088342645</v>
       </c>
       <c r="E11" t="n">
-        <v>675.5848015913701</v>
+        <v>675.5848015913703</v>
       </c>
       <c r="F11" t="n">
-        <v>675.5848015913701</v>
+        <v>675.5848015913703</v>
       </c>
       <c r="G11" t="n">
-        <v>349.9211271547663</v>
+        <v>349.9211271547664</v>
       </c>
       <c r="H11" t="n">
         <v>112.5694271974313</v>
@@ -5039,19 +5039,19 @@
         <v>50.62931842731713</v>
       </c>
       <c r="J11" t="n">
-        <v>50.62931842731713</v>
+        <v>167.8985774144699</v>
       </c>
       <c r="K11" t="n">
-        <v>287.2391769275707</v>
+        <v>287.2391769275712</v>
       </c>
       <c r="L11" t="n">
-        <v>719.2973161773716</v>
+        <v>719.2973161773721</v>
       </c>
       <c r="M11" t="n">
-        <v>1206.194903144586</v>
+        <v>1206.194903144587</v>
       </c>
       <c r="N11" t="n">
-        <v>1679.700173710447</v>
+        <v>1679.700173710448</v>
       </c>
       <c r="O11" t="n">
         <v>2074.574784355413</v>
@@ -5069,22 +5069,22 @@
         <v>2446.534426037118</v>
       </c>
       <c r="T11" t="n">
-        <v>2314.453891002492</v>
+        <v>2314.453891002491</v>
       </c>
       <c r="U11" t="n">
-        <v>2149.508185494786</v>
+        <v>2314.453891002491</v>
       </c>
       <c r="V11" t="n">
-        <v>1902.425004661992</v>
+        <v>2314.453891002491</v>
       </c>
       <c r="W11" t="n">
-        <v>1629.786167790858</v>
+        <v>2041.815054131357</v>
       </c>
       <c r="X11" t="n">
-        <v>1337.652120583616</v>
+        <v>2041.815054131357</v>
       </c>
       <c r="Y11" t="n">
-        <v>1337.652120583616</v>
+        <v>1738.169291978459</v>
       </c>
     </row>
     <row r="12">
@@ -5094,43 +5094,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>916.8133128779672</v>
+        <v>916.8133128779667</v>
       </c>
       <c r="C12" t="n">
-        <v>755.109640118922</v>
+        <v>755.1096401189216</v>
       </c>
       <c r="D12" t="n">
-        <v>616.2710031091342</v>
+        <v>616.2710031091337</v>
       </c>
       <c r="E12" t="n">
-        <v>469.2429931660054</v>
+        <v>469.2429931660049</v>
       </c>
       <c r="F12" t="n">
-        <v>334.5491951158797</v>
+        <v>334.5491951158793</v>
       </c>
       <c r="G12" t="n">
-        <v>206.1118778881641</v>
+        <v>206.1118778881637</v>
       </c>
       <c r="H12" t="n">
-        <v>108.9862327738865</v>
+        <v>108.986232773886</v>
       </c>
       <c r="I12" t="n">
         <v>50.62931842731713</v>
       </c>
       <c r="J12" t="n">
-        <v>50.62931842731713</v>
+        <v>137.8463925088447</v>
       </c>
       <c r="K12" t="n">
-        <v>50.62931842731713</v>
+        <v>413.4208828411996</v>
       </c>
       <c r="L12" t="n">
-        <v>377.7365381371098</v>
+        <v>841.2082694571443</v>
       </c>
       <c r="M12" t="n">
-        <v>935.0807557888481</v>
+        <v>1398.552487108882</v>
       </c>
       <c r="N12" t="n">
-        <v>1520.571119459616</v>
+        <v>1520.571119459617</v>
       </c>
       <c r="O12" t="n">
         <v>1980.672185824252</v>
@@ -5151,13 +5151,13 @@
         <v>2154.858197092098</v>
       </c>
       <c r="U12" t="n">
-        <v>1936.382561450211</v>
+        <v>1936.38256145021</v>
       </c>
       <c r="V12" t="n">
-        <v>1707.986938898545</v>
+        <v>1707.986938898544</v>
       </c>
       <c r="W12" t="n">
-        <v>1466.671070131855</v>
+        <v>1466.671070131854</v>
       </c>
       <c r="X12" t="n">
         <v>1268.754082009649</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>338.5477756557249</v>
+        <v>317.2821385242517</v>
       </c>
       <c r="C13" t="n">
-        <v>258.8278993886697</v>
+        <v>317.2821385242517</v>
       </c>
       <c r="D13" t="n">
-        <v>258.8278993886697</v>
+        <v>254.1063386232789</v>
       </c>
       <c r="E13" t="n">
-        <v>196.714978421253</v>
+        <v>191.9934176558622</v>
       </c>
       <c r="F13" t="n">
-        <v>196.714978421253</v>
+        <v>129.4088559529038</v>
       </c>
       <c r="G13" t="n">
-        <v>117.9354408956664</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="H13" t="n">
         <v>50.62931842731713</v>
@@ -5197,22 +5197,22 @@
         <v>50.62931842731713</v>
       </c>
       <c r="J13" t="n">
-        <v>96.79005415413178</v>
+        <v>96.79005415413172</v>
       </c>
       <c r="K13" t="n">
-        <v>246.2990519958643</v>
+        <v>246.2990519958642</v>
       </c>
       <c r="L13" t="n">
-        <v>470.5847128405362</v>
+        <v>470.584712840536</v>
       </c>
       <c r="M13" t="n">
-        <v>714.1904553447746</v>
+        <v>714.1904553447747</v>
       </c>
       <c r="N13" t="n">
         <v>957.3332466068814</v>
       </c>
       <c r="O13" t="n">
-        <v>1177.722352077498</v>
+        <v>1177.722352077497</v>
       </c>
       <c r="P13" t="n">
         <v>1357.735393016882</v>
@@ -5230,19 +5230,19 @@
         <v>1117.658424212475</v>
       </c>
       <c r="U13" t="n">
-        <v>920.3775934911289</v>
+        <v>920.377593491128</v>
       </c>
       <c r="V13" t="n">
-        <v>749.538382320816</v>
+        <v>749.5383823208151</v>
       </c>
       <c r="W13" t="n">
-        <v>612.043212025543</v>
+        <v>553.2780741094787</v>
       </c>
       <c r="X13" t="n">
-        <v>470.6868411921832</v>
+        <v>411.9217032761188</v>
       </c>
       <c r="Y13" t="n">
-        <v>338.5477756557249</v>
+        <v>410.941413937367</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1269.076140224</v>
+        <v>1879.695062530005</v>
       </c>
       <c r="C14" t="n">
-        <v>1269.076140224</v>
+        <v>1587.657397134077</v>
       </c>
       <c r="D14" t="n">
-        <v>1005.437716905115</v>
+        <v>1304.729525632564</v>
       </c>
       <c r="E14" t="n">
-        <v>700.5480902824862</v>
+        <v>999.8398990099357</v>
       </c>
       <c r="F14" t="n">
-        <v>376.2929928639209</v>
+        <v>675.5848015913705</v>
       </c>
       <c r="G14" t="n">
-        <v>50.62931842731713</v>
+        <v>349.9211271547665</v>
       </c>
       <c r="H14" t="n">
-        <v>50.62931842731713</v>
+        <v>112.5694271974314</v>
       </c>
       <c r="I14" t="n">
         <v>50.62931842731713</v>
@@ -5282,10 +5282,10 @@
         <v>475.8880155938953</v>
       </c>
       <c r="L14" t="n">
-        <v>719.2973161773716</v>
+        <v>907.9461548436961</v>
       </c>
       <c r="M14" t="n">
-        <v>1206.194903144586</v>
+        <v>1394.843741810911</v>
       </c>
       <c r="N14" t="n">
         <v>1679.700173710447</v>
@@ -5303,25 +5303,25 @@
         <v>2531.465921365857</v>
       </c>
       <c r="S14" t="n">
-        <v>2446.534426037118</v>
+        <v>2480.367065225234</v>
       </c>
       <c r="T14" t="n">
-        <v>2314.453891002492</v>
+        <v>2348.286530190608</v>
       </c>
       <c r="U14" t="n">
-        <v>2149.508185494786</v>
+        <v>2183.340824682902</v>
       </c>
       <c r="V14" t="n">
-        <v>2149.508185494786</v>
+        <v>2183.340824682902</v>
       </c>
       <c r="W14" t="n">
-        <v>1876.869348623652</v>
+        <v>2183.340824682902</v>
       </c>
       <c r="X14" t="n">
-        <v>1876.869348623652</v>
+        <v>2183.340824682902</v>
       </c>
       <c r="Y14" t="n">
-        <v>1573.223586470754</v>
+        <v>1879.695062530005</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>916.813312877967</v>
+        <v>916.8133128779675</v>
       </c>
       <c r="C15" t="n">
-        <v>755.1096401189217</v>
+        <v>755.1096401189222</v>
       </c>
       <c r="D15" t="n">
-        <v>616.2710031091337</v>
+        <v>616.2710031091343</v>
       </c>
       <c r="E15" t="n">
-        <v>469.2429931660049</v>
+        <v>469.2429931660055</v>
       </c>
       <c r="F15" t="n">
-        <v>334.5491951158793</v>
+        <v>334.5491951158799</v>
       </c>
       <c r="G15" t="n">
-        <v>206.1118778881637</v>
+        <v>206.1118778881643</v>
       </c>
       <c r="H15" t="n">
-        <v>108.986232773886</v>
+        <v>108.9862327738867</v>
       </c>
       <c r="I15" t="n">
         <v>50.62931842731713</v>
@@ -5382,19 +5382,19 @@
         <v>2489.760525245193</v>
       </c>
       <c r="S15" t="n">
-        <v>2342.369630108872</v>
+        <v>2342.369630108873</v>
       </c>
       <c r="T15" t="n">
         <v>2154.858197092098</v>
       </c>
       <c r="U15" t="n">
-        <v>1936.38256145021</v>
+        <v>1936.382561450211</v>
       </c>
       <c r="V15" t="n">
-        <v>1707.986938898544</v>
+        <v>1707.986938898545</v>
       </c>
       <c r="W15" t="n">
-        <v>1466.671070131854</v>
+        <v>1466.671070131855</v>
       </c>
       <c r="X15" t="n">
         <v>1268.754082009649</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>469.7195441403215</v>
+        <v>369.3184618758007</v>
       </c>
       <c r="C16" t="n">
-        <v>389.9996678732663</v>
+        <v>289.5985856087453</v>
       </c>
       <c r="D16" t="n">
-        <v>326.8238679722936</v>
+        <v>289.5985856087453</v>
       </c>
       <c r="E16" t="n">
-        <v>264.7109470048769</v>
+        <v>227.4856646413286</v>
       </c>
       <c r="F16" t="n">
-        <v>243.6806404639565</v>
+        <v>164.9011029383701</v>
       </c>
       <c r="G16" t="n">
-        <v>164.9011029383699</v>
+        <v>164.9011029383701</v>
       </c>
       <c r="H16" t="n">
-        <v>97.59498047002066</v>
+        <v>97.59498047002074</v>
       </c>
       <c r="I16" t="n">
         <v>50.62931842731713</v>
       </c>
       <c r="J16" t="n">
-        <v>96.79005415413178</v>
+        <v>96.7900541541317</v>
       </c>
       <c r="K16" t="n">
-        <v>246.2990519958643</v>
+        <v>246.2990519958641</v>
       </c>
       <c r="L16" t="n">
-        <v>470.5847128405362</v>
+        <v>470.5847128405359</v>
       </c>
       <c r="M16" t="n">
-        <v>714.1904553447748</v>
+        <v>714.1904553447745</v>
       </c>
       <c r="N16" t="n">
-        <v>957.3332466068816</v>
+        <v>957.3332466068812</v>
       </c>
       <c r="O16" t="n">
-        <v>1177.722352077498</v>
+        <v>1177.722352077497</v>
       </c>
       <c r="P16" t="n">
-        <v>1357.735393016882</v>
+        <v>1357.735393016881</v>
       </c>
       <c r="Q16" t="n">
-        <v>1428.106858962691</v>
+        <v>1428.10685896269</v>
       </c>
       <c r="R16" t="n">
-        <v>1379.457596424593</v>
+        <v>1379.457596424592</v>
       </c>
       <c r="S16" t="n">
-        <v>1259.898235192891</v>
+        <v>1259.89823519289</v>
       </c>
       <c r="T16" t="n">
-        <v>1259.898235192891</v>
+        <v>1117.658424212474</v>
       </c>
       <c r="U16" t="n">
-        <v>1062.617404471544</v>
+        <v>920.3775934911274</v>
       </c>
       <c r="V16" t="n">
-        <v>891.7781933012316</v>
+        <v>749.5383823208144</v>
       </c>
       <c r="W16" t="n">
-        <v>695.5178850898952</v>
+        <v>553.278074109478</v>
       </c>
       <c r="X16" t="n">
-        <v>695.5178850898952</v>
+        <v>411.921703276118</v>
       </c>
       <c r="Y16" t="n">
-        <v>563.3788195534369</v>
+        <v>411.921703276118</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1351.513793084492</v>
+        <v>1351.513793084493</v>
       </c>
       <c r="C17" t="n">
-        <v>1137.18298780113</v>
+        <v>1137.182987801131</v>
       </c>
       <c r="D17" t="n">
-        <v>931.9619764121848</v>
+        <v>931.9619764121851</v>
       </c>
       <c r="E17" t="n">
-        <v>704.7792099021224</v>
+        <v>704.7792099021226</v>
       </c>
       <c r="F17" t="n">
-        <v>458.2309725961234</v>
+        <v>458.2309725961236</v>
       </c>
       <c r="G17" t="n">
         <v>210.274158272086</v>
@@ -5513,16 +5513,16 @@
         <v>50.62931842731713</v>
       </c>
       <c r="J17" t="n">
-        <v>50.62931842731713</v>
+        <v>167.8985774144699</v>
       </c>
       <c r="K17" t="n">
-        <v>358.6187566067425</v>
+        <v>475.8880155938953</v>
       </c>
       <c r="L17" t="n">
-        <v>790.6768958565434</v>
+        <v>907.9461548436961</v>
       </c>
       <c r="M17" t="n">
-        <v>1206.194903144586</v>
+        <v>1394.843741810911</v>
       </c>
       <c r="N17" t="n">
         <v>1679.700173710447</v>
@@ -5546,13 +5546,13 @@
         <v>2469.867611227624</v>
       </c>
       <c r="U17" t="n">
-        <v>2382.628765832484</v>
+        <v>2382.628765832485</v>
       </c>
       <c r="V17" t="n">
-        <v>2213.252445112256</v>
+        <v>2213.252445112257</v>
       </c>
       <c r="W17" t="n">
-        <v>2018.320468353688</v>
+        <v>2018.320468353689</v>
       </c>
       <c r="X17" t="n">
         <v>1803.893281259012</v>
@@ -5592,25 +5592,25 @@
         <v>50.62931842731713</v>
       </c>
       <c r="J18" t="n">
-        <v>137.8463925088447</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="K18" t="n">
-        <v>413.4208828411996</v>
+        <v>326.203808759672</v>
       </c>
       <c r="L18" t="n">
-        <v>841.2082694571443</v>
+        <v>753.9911953756168</v>
       </c>
       <c r="M18" t="n">
-        <v>935.0807557888481</v>
+        <v>1311.335413027355</v>
       </c>
       <c r="N18" t="n">
-        <v>1520.571119459616</v>
+        <v>1896.825776698123</v>
       </c>
       <c r="O18" t="n">
-        <v>1980.672185824252</v>
+        <v>2356.926843062759</v>
       </c>
       <c r="P18" t="n">
-        <v>2337.264736621381</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="Q18" t="n">
         <v>2531.465921365857</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>211.2523380015519</v>
+        <v>53.71501199482648</v>
       </c>
       <c r="C19" t="n">
-        <v>209.239321847063</v>
+        <v>51.70199584033748</v>
       </c>
       <c r="D19" t="n">
-        <v>209.239321847063</v>
+        <v>51.70199584033748</v>
       </c>
       <c r="E19" t="n">
-        <v>57.23030760838182</v>
+        <v>51.70199584033748</v>
       </c>
       <c r="F19" t="n">
-        <v>57.23030760838182</v>
+        <v>51.70199584033748</v>
       </c>
       <c r="G19" t="n">
         <v>50.62931842731713</v>
@@ -5704,19 +5704,19 @@
         <v>676.5462392120837</v>
       </c>
       <c r="U19" t="n">
-        <v>556.9722686033034</v>
+        <v>556.9722686033033</v>
       </c>
       <c r="V19" t="n">
-        <v>463.8399175455568</v>
+        <v>463.8399175455566</v>
       </c>
       <c r="W19" t="n">
-        <v>345.2864694467867</v>
+        <v>345.2864694467864</v>
       </c>
       <c r="X19" t="n">
-        <v>281.6369587259932</v>
+        <v>124.0996327192678</v>
       </c>
       <c r="Y19" t="n">
-        <v>227.204753302101</v>
+        <v>69.6674272953756</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1351.513793084492</v>
+        <v>1351.513793084493</v>
       </c>
       <c r="C20" t="n">
-        <v>1137.18298780113</v>
+        <v>1137.182987801131</v>
       </c>
       <c r="D20" t="n">
-        <v>931.9619764121848</v>
+        <v>931.9619764121851</v>
       </c>
       <c r="E20" t="n">
-        <v>704.7792099021224</v>
+        <v>704.7792099021226</v>
       </c>
       <c r="F20" t="n">
-        <v>458.2309725961234</v>
+        <v>458.2309725961237</v>
       </c>
       <c r="G20" t="n">
         <v>210.274158272086</v>
@@ -5753,22 +5753,22 @@
         <v>50.62931842731713</v>
       </c>
       <c r="K20" t="n">
-        <v>287.2391769275707</v>
+        <v>358.6187566067425</v>
       </c>
       <c r="L20" t="n">
-        <v>719.2973161773716</v>
+        <v>790.6768958565434</v>
       </c>
       <c r="M20" t="n">
-        <v>1206.194903144586</v>
+        <v>1277.574482823758</v>
       </c>
       <c r="N20" t="n">
-        <v>1679.700173710447</v>
+        <v>1751.079753389619</v>
       </c>
       <c r="O20" t="n">
-        <v>2074.574784355413</v>
+        <v>2145.954364034585</v>
       </c>
       <c r="P20" t="n">
-        <v>2379.433668932841</v>
+        <v>2450.813248612012</v>
       </c>
       <c r="Q20" t="n">
         <v>2531.465921365857</v>
@@ -5780,22 +5780,22 @@
         <v>2524.241286149684</v>
       </c>
       <c r="T20" t="n">
-        <v>2469.867611227623</v>
+        <v>2469.867611227624</v>
       </c>
       <c r="U20" t="n">
-        <v>2382.628765832484</v>
+        <v>2382.628765832485</v>
       </c>
       <c r="V20" t="n">
-        <v>2213.252445112255</v>
+        <v>2213.252445112257</v>
       </c>
       <c r="W20" t="n">
-        <v>2018.320468353687</v>
+        <v>2018.320468353688</v>
       </c>
       <c r="X20" t="n">
-        <v>1803.893281259011</v>
+        <v>1803.893281259012</v>
       </c>
       <c r="Y20" t="n">
-        <v>1577.95437921868</v>
+        <v>1577.954379218681</v>
       </c>
     </row>
     <row r="21">
@@ -5805,40 +5805,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>916.8133128779675</v>
+        <v>916.813312877967</v>
       </c>
       <c r="C21" t="n">
-        <v>755.1096401189222</v>
+        <v>755.1096401189217</v>
       </c>
       <c r="D21" t="n">
-        <v>616.2710031091343</v>
+        <v>616.2710031091337</v>
       </c>
       <c r="E21" t="n">
-        <v>469.2429931660055</v>
+        <v>469.2429931660049</v>
       </c>
       <c r="F21" t="n">
-        <v>334.5491951158799</v>
+        <v>334.5491951158793</v>
       </c>
       <c r="G21" t="n">
-        <v>206.1118778881643</v>
+        <v>206.1118778881637</v>
       </c>
       <c r="H21" t="n">
-        <v>108.9862327738867</v>
+        <v>108.986232773886</v>
       </c>
       <c r="I21" t="n">
         <v>50.62931842731713</v>
       </c>
       <c r="J21" t="n">
-        <v>50.62931842731713</v>
+        <v>137.8463925088447</v>
       </c>
       <c r="K21" t="n">
-        <v>50.62931842731713</v>
+        <v>413.4208828411996</v>
       </c>
       <c r="L21" t="n">
-        <v>377.7365381371098</v>
+        <v>841.2082694571443</v>
       </c>
       <c r="M21" t="n">
-        <v>935.0807557888481</v>
+        <v>1398.552487108883</v>
       </c>
       <c r="N21" t="n">
         <v>1520.571119459616</v>
@@ -5856,19 +5856,19 @@
         <v>2489.760525245193</v>
       </c>
       <c r="S21" t="n">
-        <v>2342.369630108873</v>
+        <v>2342.369630108872</v>
       </c>
       <c r="T21" t="n">
         <v>2154.858197092098</v>
       </c>
       <c r="U21" t="n">
-        <v>1936.382561450211</v>
+        <v>1936.38256145021</v>
       </c>
       <c r="V21" t="n">
-        <v>1707.986938898545</v>
+        <v>1707.986938898544</v>
       </c>
       <c r="W21" t="n">
-        <v>1466.671070131855</v>
+        <v>1466.671070131854</v>
       </c>
       <c r="X21" t="n">
         <v>1268.754082009649</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>206.1956669690493</v>
+        <v>53.71501199482648</v>
       </c>
       <c r="C22" t="n">
-        <v>204.1826508145603</v>
+        <v>51.70199584033748</v>
       </c>
       <c r="D22" t="n">
-        <v>204.1826508145603</v>
+        <v>51.70199584033748</v>
       </c>
       <c r="E22" t="n">
-        <v>204.1826508145603</v>
+        <v>51.70199584033748</v>
       </c>
       <c r="F22" t="n">
-        <v>51.70199584033742</v>
+        <v>51.70199584033748</v>
       </c>
       <c r="G22" t="n">
         <v>50.62931842731713</v>
@@ -5941,19 +5941,19 @@
         <v>676.5462392120837</v>
       </c>
       <c r="U22" t="n">
-        <v>556.9722686033034</v>
+        <v>556.9722686033033</v>
       </c>
       <c r="V22" t="n">
-        <v>463.8399175455568</v>
+        <v>463.8399175455566</v>
       </c>
       <c r="W22" t="n">
-        <v>345.2864694467867</v>
+        <v>345.2864694467864</v>
       </c>
       <c r="X22" t="n">
-        <v>281.6369587259932</v>
+        <v>281.6369587259929</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.1480822695983</v>
+        <v>69.6674272953756</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1137.182987801131</v>
       </c>
       <c r="D23" t="n">
-        <v>931.9619764121857</v>
+        <v>931.961976412185</v>
       </c>
       <c r="E23" t="n">
-        <v>704.7792099021233</v>
+        <v>704.7792099021226</v>
       </c>
       <c r="F23" t="n">
-        <v>458.2309725961244</v>
+        <v>458.2309725961235</v>
       </c>
       <c r="G23" t="n">
         <v>210.274158272086</v>
@@ -5987,25 +5987,25 @@
         <v>50.62931842731713</v>
       </c>
       <c r="J23" t="n">
-        <v>131.2819911811612</v>
+        <v>167.8985774144699</v>
       </c>
       <c r="K23" t="n">
-        <v>439.2714293605866</v>
+        <v>475.8880155938953</v>
       </c>
       <c r="L23" t="n">
-        <v>871.3295686103875</v>
+        <v>907.9461548436961</v>
       </c>
       <c r="M23" t="n">
-        <v>1358.227155577602</v>
+        <v>1394.843741810911</v>
       </c>
       <c r="N23" t="n">
-        <v>1831.732426143463</v>
+        <v>1679.700173710447</v>
       </c>
       <c r="O23" t="n">
-        <v>2226.607036788429</v>
+        <v>2074.574784355413</v>
       </c>
       <c r="P23" t="n">
-        <v>2531.465921365857</v>
+        <v>2379.433668932841</v>
       </c>
       <c r="Q23" t="n">
         <v>2531.465921365857</v>
@@ -6020,16 +6020,16 @@
         <v>2469.867611227624</v>
       </c>
       <c r="U23" t="n">
-        <v>2382.628765832485</v>
+        <v>2382.628765832484</v>
       </c>
       <c r="V23" t="n">
-        <v>2213.252445112257</v>
+        <v>2213.252445112256</v>
       </c>
       <c r="W23" t="n">
-        <v>2018.320468353689</v>
+        <v>2018.320468353688</v>
       </c>
       <c r="X23" t="n">
-        <v>1803.893281259013</v>
+        <v>1803.893281259012</v>
       </c>
       <c r="Y23" t="n">
         <v>1577.954379218681</v>
@@ -6042,10 +6042,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>916.813312877967</v>
+        <v>916.8133128779667</v>
       </c>
       <c r="C24" t="n">
-        <v>755.1096401189217</v>
+        <v>755.1096401189216</v>
       </c>
       <c r="D24" t="n">
         <v>616.2710031091337</v>
@@ -6072,28 +6072,28 @@
         <v>413.4208828411996</v>
       </c>
       <c r="L24" t="n">
-        <v>841.2082694571443</v>
+        <v>413.4208828411996</v>
       </c>
       <c r="M24" t="n">
-        <v>1398.552487108883</v>
+        <v>970.7651004929379</v>
       </c>
       <c r="N24" t="n">
-        <v>1714.772304204091</v>
+        <v>1520.571119459616</v>
       </c>
       <c r="O24" t="n">
-        <v>2174.873370568726</v>
+        <v>1980.672185824252</v>
       </c>
       <c r="P24" t="n">
-        <v>2531.465921365856</v>
+        <v>2337.264736621381</v>
       </c>
       <c r="Q24" t="n">
-        <v>2531.465921365856</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="R24" t="n">
         <v>2489.760525245193</v>
       </c>
       <c r="S24" t="n">
-        <v>2342.369630108872</v>
+        <v>2342.369630108873</v>
       </c>
       <c r="T24" t="n">
         <v>2154.858197092098</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>193.1565364819546</v>
+        <v>211.2523380015518</v>
       </c>
       <c r="C25" t="n">
-        <v>191.1435203274657</v>
+        <v>209.2393218470629</v>
       </c>
       <c r="D25" t="n">
-        <v>191.1435203274657</v>
+        <v>209.2393218470629</v>
       </c>
       <c r="E25" t="n">
-        <v>191.1435203274657</v>
+        <v>209.2393218470629</v>
       </c>
       <c r="F25" t="n">
-        <v>191.1435203274657</v>
+        <v>209.2393218470629</v>
       </c>
       <c r="G25" t="n">
         <v>50.62931842731713</v>
@@ -6166,31 +6166,31 @@
         <v>782.931691199069</v>
       </c>
       <c r="Q25" t="n">
-        <v>764.8358896794716</v>
+        <v>782.931691199069</v>
       </c>
       <c r="R25" t="n">
-        <v>764.8358896794716</v>
+        <v>782.931691199069</v>
       </c>
       <c r="S25" t="n">
-        <v>722.9833885603359</v>
+        <v>741.0791900799333</v>
       </c>
       <c r="T25" t="n">
-        <v>658.4504376924864</v>
+        <v>676.5462392120837</v>
       </c>
       <c r="U25" t="n">
-        <v>538.8764670837061</v>
+        <v>556.9722686033034</v>
       </c>
       <c r="V25" t="n">
-        <v>445.7441160259594</v>
+        <v>463.8399175455568</v>
       </c>
       <c r="W25" t="n">
-        <v>327.1906679271893</v>
+        <v>345.2864694467866</v>
       </c>
       <c r="X25" t="n">
-        <v>263.5411572063958</v>
+        <v>281.6369587259931</v>
       </c>
       <c r="Y25" t="n">
-        <v>209.1089517825037</v>
+        <v>227.2047533021009</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1803.517264476238</v>
+        <v>1803.517264476239</v>
       </c>
       <c r="C26" t="n">
-        <v>1525.118002027183</v>
+        <v>1525.118002027184</v>
       </c>
       <c r="D26" t="n">
-        <v>1255.828533472544</v>
+        <v>1255.828533472545</v>
       </c>
       <c r="E26" t="n">
-        <v>964.5773097967885</v>
+        <v>964.5773097967892</v>
       </c>
       <c r="F26" t="n">
-        <v>653.9606153250966</v>
+        <v>653.960615325097</v>
       </c>
       <c r="G26" t="n">
-        <v>341.935343835366</v>
+        <v>341.9353438353659</v>
       </c>
       <c r="H26" t="n">
         <v>118.2220468249039</v>
@@ -6224,16 +6224,16 @@
         <v>69.92034100166293</v>
       </c>
       <c r="J26" t="n">
-        <v>288.6637597322125</v>
+        <v>288.6637597322124</v>
       </c>
       <c r="K26" t="n">
-        <v>698.1273576550348</v>
+        <v>698.1273576550346</v>
       </c>
       <c r="L26" t="n">
         <v>1231.659656648232</v>
       </c>
       <c r="M26" t="n">
-        <v>1820.031403358844</v>
+        <v>1820.031403358843</v>
       </c>
       <c r="N26" t="n">
         <v>2395.010833668101</v>
@@ -6242,7 +6242,7 @@
         <v>2891.359604056463</v>
       </c>
       <c r="P26" t="n">
-        <v>3196.365573339991</v>
+        <v>3297.692648377288</v>
       </c>
       <c r="Q26" t="n">
         <v>3449.871985516404</v>
@@ -6257,10 +6257,10 @@
         <v>3306.281825613528</v>
       </c>
       <c r="U26" t="n">
-        <v>3154.974523052695</v>
+        <v>3154.974523052696</v>
       </c>
       <c r="V26" t="n">
-        <v>2921.529745166774</v>
+        <v>2921.529745166775</v>
       </c>
       <c r="W26" t="n">
         <v>2662.529311242513</v>
@@ -6315,13 +6315,13 @@
         <v>1417.843509683229</v>
       </c>
       <c r="N27" t="n">
-        <v>1734.063326778437</v>
+        <v>1539.862142033961</v>
       </c>
       <c r="O27" t="n">
-        <v>2194.164393143072</v>
+        <v>1999.963208398597</v>
       </c>
       <c r="P27" t="n">
-        <v>2550.756943940202</v>
+        <v>2356.555759195726</v>
       </c>
       <c r="Q27" t="n">
         <v>2550.756943940202</v>
@@ -6367,7 +6367,7 @@
         <v>319.4771309743116</v>
       </c>
       <c r="E28" t="n">
-        <v>271.0026129537681</v>
+        <v>271.0026129537682</v>
       </c>
       <c r="F28" t="n">
         <v>222.0564541976829</v>
@@ -6382,28 +6382,28 @@
         <v>69.92034100166293</v>
       </c>
       <c r="J28" t="n">
-        <v>129.4480754567079</v>
+        <v>129.4480754567076</v>
       </c>
       <c r="K28" t="n">
-        <v>292.3240720266708</v>
+        <v>292.3240720266705</v>
       </c>
       <c r="L28" t="n">
-        <v>529.9767315995731</v>
+        <v>529.9767315995728</v>
       </c>
       <c r="M28" t="n">
-        <v>786.9494728320423</v>
+        <v>786.9494728320418</v>
       </c>
       <c r="N28" t="n">
-        <v>1043.45926282238</v>
+        <v>1043.459262822379</v>
       </c>
       <c r="O28" t="n">
         <v>1277.215367021226</v>
       </c>
       <c r="P28" t="n">
-        <v>1470.595406688841</v>
+        <v>1470.59540668884</v>
       </c>
       <c r="Q28" t="n">
-        <v>1554.33387136288</v>
+        <v>1554.333871362879</v>
       </c>
       <c r="R28" t="n">
         <v>1519.323011771655</v>
@@ -6412,7 +6412,7 @@
         <v>1413.402053486826</v>
       </c>
       <c r="T28" t="n">
-        <v>1284.800645453284</v>
+        <v>1284.800645453283</v>
       </c>
       <c r="U28" t="n">
         <v>1101.15821767881</v>
@@ -6421,10 +6421,10 @@
         <v>943.9574094553705</v>
       </c>
       <c r="W28" t="n">
-        <v>761.3355041909073</v>
+        <v>761.3355041909072</v>
       </c>
       <c r="X28" t="n">
-        <v>633.6175363044207</v>
+        <v>633.6175363044206</v>
       </c>
       <c r="Y28" t="n">
         <v>515.1168737148355</v>
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1803.517264476238</v>
+        <v>1803.517264476236</v>
       </c>
       <c r="C29" t="n">
-        <v>1525.118002027183</v>
+        <v>1525.118002027181</v>
       </c>
       <c r="D29" t="n">
-        <v>1255.828533472544</v>
+        <v>1255.828533472543</v>
       </c>
       <c r="E29" t="n">
-        <v>964.577309796789</v>
+        <v>964.5773097967872</v>
       </c>
       <c r="F29" t="n">
-        <v>653.9606153250969</v>
+        <v>653.9606153250952</v>
       </c>
       <c r="G29" t="n">
-        <v>341.9353438353663</v>
+        <v>341.9353438353646</v>
       </c>
       <c r="H29" t="n">
         <v>118.2220468249039</v>
@@ -6461,52 +6461,52 @@
         <v>69.92034100166293</v>
       </c>
       <c r="J29" t="n">
-        <v>288.6637597322125</v>
+        <v>288.6637597322124</v>
       </c>
       <c r="K29" t="n">
-        <v>698.1273576550348</v>
+        <v>698.1273576550346</v>
       </c>
       <c r="L29" t="n">
-        <v>1231.659656648233</v>
+        <v>1231.659656648232</v>
       </c>
       <c r="M29" t="n">
-        <v>1820.031403358844</v>
+        <v>1820.031403358843</v>
       </c>
       <c r="N29" t="n">
         <v>2395.010833668101</v>
       </c>
       <c r="O29" t="n">
-        <v>2790.032529019166</v>
+        <v>2891.359604056463</v>
       </c>
       <c r="P29" t="n">
-        <v>3196.365573339991</v>
+        <v>3242.510637906734</v>
       </c>
       <c r="Q29" t="n">
-        <v>3449.871985516403</v>
+        <v>3496.017050083147</v>
       </c>
       <c r="R29" t="n">
-        <v>3496.017050083146</v>
+        <v>3496.017050083147</v>
       </c>
       <c r="S29" t="n">
-        <v>3424.723957701281</v>
+        <v>3424.723957701278</v>
       </c>
       <c r="T29" t="n">
-        <v>3306.281825613528</v>
+        <v>3306.281825613526</v>
       </c>
       <c r="U29" t="n">
-        <v>3154.974523052695</v>
+        <v>3154.974523052693</v>
       </c>
       <c r="V29" t="n">
-        <v>2921.529745166774</v>
+        <v>2921.529745166772</v>
       </c>
       <c r="W29" t="n">
-        <v>2662.529311242513</v>
+        <v>2662.529311242511</v>
       </c>
       <c r="X29" t="n">
-        <v>2384.033666982144</v>
+        <v>2384.033666982142</v>
       </c>
       <c r="Y29" t="n">
-        <v>2094.02630777612</v>
+        <v>2094.026307776117</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>635.5620256834795</v>
       </c>
       <c r="E30" t="n">
-        <v>488.5340157403507</v>
+        <v>488.5340157403508</v>
       </c>
       <c r="F30" t="n">
         <v>353.8402176902251</v>
@@ -6546,19 +6546,19 @@
         <v>432.7119054155455</v>
       </c>
       <c r="L30" t="n">
-        <v>860.4992920314903</v>
+        <v>860.4992920314902</v>
       </c>
       <c r="M30" t="n">
         <v>1417.843509683229</v>
       </c>
       <c r="N30" t="n">
-        <v>1734.063326778437</v>
+        <v>1539.862142033962</v>
       </c>
       <c r="O30" t="n">
-        <v>2194.164393143072</v>
+        <v>1999.963208398597</v>
       </c>
       <c r="P30" t="n">
-        <v>2550.756943940202</v>
+        <v>2356.555759195727</v>
       </c>
       <c r="Q30" t="n">
         <v>2550.756943940202</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>435.0960012485932</v>
+        <v>435.0960012485926</v>
       </c>
       <c r="C31" t="n">
-        <v>369.0145279284112</v>
+        <v>369.0145279284106</v>
       </c>
       <c r="D31" t="n">
-        <v>319.4771309743115</v>
+        <v>319.4771309743111</v>
       </c>
       <c r="E31" t="n">
-        <v>271.0026129537681</v>
+        <v>271.0026129537676</v>
       </c>
       <c r="F31" t="n">
-        <v>222.0564541976829</v>
+        <v>222.0564541976824</v>
       </c>
       <c r="G31" t="n">
-        <v>156.9153196189695</v>
+        <v>156.915319618969</v>
       </c>
       <c r="H31" t="n">
-        <v>103.2476000974933</v>
+        <v>103.2476000974932</v>
       </c>
       <c r="I31" t="n">
         <v>69.92034100166293</v>
       </c>
       <c r="J31" t="n">
-        <v>129.448075456708</v>
+        <v>129.4480754567078</v>
       </c>
       <c r="K31" t="n">
-        <v>292.3240720266709</v>
+        <v>292.3240720266706</v>
       </c>
       <c r="L31" t="n">
-        <v>529.9767315995732</v>
+        <v>529.9767315995729</v>
       </c>
       <c r="M31" t="n">
-        <v>786.9494728320421</v>
+        <v>786.9494728320415</v>
       </c>
       <c r="N31" t="n">
-        <v>1043.45926282238</v>
+        <v>1043.459262822379</v>
       </c>
       <c r="O31" t="n">
-        <v>1277.215367021226</v>
+        <v>1277.215367021225</v>
       </c>
       <c r="P31" t="n">
         <v>1470.59540668884</v>
       </c>
       <c r="Q31" t="n">
-        <v>1554.33387136288</v>
+        <v>1554.333871362879</v>
       </c>
       <c r="R31" t="n">
-        <v>1519.323011771655</v>
+        <v>1519.323011771654</v>
       </c>
       <c r="S31" t="n">
-        <v>1413.402053486826</v>
+        <v>1413.402053486825</v>
       </c>
       <c r="T31" t="n">
-        <v>1284.800645453284</v>
+        <v>1284.800645453283</v>
       </c>
       <c r="U31" t="n">
-        <v>1101.15821767881</v>
+        <v>1101.158217678809</v>
       </c>
       <c r="V31" t="n">
-        <v>943.9574094553705</v>
+        <v>943.9574094553698</v>
       </c>
       <c r="W31" t="n">
-        <v>761.3355041909073</v>
+        <v>761.3355041909066</v>
       </c>
       <c r="X31" t="n">
-        <v>633.6175363044207</v>
+        <v>633.6175363044201</v>
       </c>
       <c r="Y31" t="n">
-        <v>515.1168737148354</v>
+        <v>515.1168737148348</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1525.118002027183</v>
       </c>
       <c r="D32" t="n">
-        <v>1255.828533472544</v>
+        <v>1255.828533472545</v>
       </c>
       <c r="E32" t="n">
-        <v>964.5773097967885</v>
+        <v>964.577309796789</v>
       </c>
       <c r="F32" t="n">
-        <v>653.9606153250966</v>
+        <v>653.960615325097</v>
       </c>
       <c r="G32" t="n">
         <v>341.9353438353658</v>
@@ -6698,16 +6698,16 @@
         <v>69.92034100166293</v>
       </c>
       <c r="J32" t="n">
-        <v>288.6637597322125</v>
+        <v>288.6637597322124</v>
       </c>
       <c r="K32" t="n">
-        <v>698.1273576550348</v>
+        <v>698.1273576550346</v>
       </c>
       <c r="L32" t="n">
         <v>1231.659656648232</v>
       </c>
       <c r="M32" t="n">
-        <v>1820.031403358844</v>
+        <v>1820.031403358843</v>
       </c>
       <c r="N32" t="n">
         <v>2395.010833668101</v>
@@ -6716,13 +6716,13 @@
         <v>2891.359604056463</v>
       </c>
       <c r="P32" t="n">
-        <v>3196.365573339991</v>
+        <v>3297.692648377288</v>
       </c>
       <c r="Q32" t="n">
-        <v>3449.871985516403</v>
+        <v>3449.871985516404</v>
       </c>
       <c r="R32" t="n">
-        <v>3496.017050083146</v>
+        <v>3496.017050083147</v>
       </c>
       <c r="S32" t="n">
         <v>3424.723957701281</v>
@@ -6731,19 +6731,19 @@
         <v>3306.281825613528</v>
       </c>
       <c r="U32" t="n">
-        <v>3154.974523052695</v>
+        <v>3154.974523052696</v>
       </c>
       <c r="V32" t="n">
-        <v>2921.529745166774</v>
+        <v>2921.529745166775</v>
       </c>
       <c r="W32" t="n">
-        <v>2662.529311242512</v>
+        <v>2662.529311242513</v>
       </c>
       <c r="X32" t="n">
         <v>2384.033666982144</v>
       </c>
       <c r="Y32" t="n">
-        <v>2094.026307776119</v>
+        <v>2094.02630777612</v>
       </c>
     </row>
     <row r="33">
@@ -6783,19 +6783,19 @@
         <v>432.7119054155455</v>
       </c>
       <c r="L33" t="n">
-        <v>860.4992920314902</v>
+        <v>432.7119054155455</v>
       </c>
       <c r="M33" t="n">
-        <v>1417.843509683229</v>
+        <v>990.0561230672838</v>
       </c>
       <c r="N33" t="n">
-        <v>1734.063326778437</v>
+        <v>1575.546486738052</v>
       </c>
       <c r="O33" t="n">
-        <v>2194.164393143072</v>
+        <v>2035.647553102687</v>
       </c>
       <c r="P33" t="n">
-        <v>2550.756943940202</v>
+        <v>2356.555759195727</v>
       </c>
       <c r="Q33" t="n">
         <v>2550.756943940202</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>435.096001248593</v>
+        <v>435.0960012485931</v>
       </c>
       <c r="C34" t="n">
-        <v>369.014527928411</v>
+        <v>369.0145279284111</v>
       </c>
       <c r="D34" t="n">
-        <v>319.4771309743114</v>
+        <v>319.4771309743115</v>
       </c>
       <c r="E34" t="n">
-        <v>271.0026129537679</v>
+        <v>271.002612953768</v>
       </c>
       <c r="F34" t="n">
-        <v>222.0564541976827</v>
+        <v>222.0564541976828</v>
       </c>
       <c r="G34" t="n">
         <v>156.9153196189694</v>
@@ -6856,31 +6856,31 @@
         <v>69.92034100166293</v>
       </c>
       <c r="J34" t="n">
-        <v>129.448075456708</v>
+        <v>129.4480754567083</v>
       </c>
       <c r="K34" t="n">
-        <v>292.3240720266709</v>
+        <v>292.3240720266712</v>
       </c>
       <c r="L34" t="n">
-        <v>529.9767315995732</v>
+        <v>529.9767315995734</v>
       </c>
       <c r="M34" t="n">
-        <v>786.9494728320423</v>
+        <v>786.9494728320424</v>
       </c>
       <c r="N34" t="n">
         <v>1043.45926282238</v>
       </c>
       <c r="O34" t="n">
-        <v>1277.215367021225</v>
+        <v>1277.215367021226</v>
       </c>
       <c r="P34" t="n">
         <v>1470.59540668884</v>
       </c>
       <c r="Q34" t="n">
-        <v>1554.333871362879</v>
+        <v>1554.33387136288</v>
       </c>
       <c r="R34" t="n">
-        <v>1519.323011771654</v>
+        <v>1519.323011771655</v>
       </c>
       <c r="S34" t="n">
         <v>1413.402053486826</v>
@@ -6892,16 +6892,16 @@
         <v>1101.15821767881</v>
       </c>
       <c r="V34" t="n">
-        <v>943.9574094553701</v>
+        <v>943.9574094553702</v>
       </c>
       <c r="W34" t="n">
-        <v>761.3355041909069</v>
+        <v>761.335504190907</v>
       </c>
       <c r="X34" t="n">
-        <v>633.6175363044204</v>
+        <v>633.6175363044205</v>
       </c>
       <c r="Y34" t="n">
-        <v>515.1168737148352</v>
+        <v>515.1168737148353</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1436.213271669373</v>
+        <v>1436.213271669374</v>
       </c>
       <c r="C35" t="n">
-        <v>1208.407549338416</v>
+        <v>1208.407549338417</v>
       </c>
       <c r="D35" t="n">
-        <v>989.7116209018761</v>
+        <v>989.7116209018772</v>
       </c>
       <c r="E35" t="n">
-        <v>749.0539373442191</v>
+        <v>749.0539373442202</v>
       </c>
       <c r="F35" t="n">
-        <v>489.0307829906255</v>
+        <v>489.0307829906268</v>
       </c>
       <c r="G35" t="n">
-        <v>227.5990516189934</v>
+        <v>227.5990516189932</v>
       </c>
       <c r="H35" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="I35" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="J35" t="n">
         <v>171.7485537137827</v>
       </c>
       <c r="K35" t="n">
-        <v>479.7379918932081</v>
+        <v>479.7379918932083</v>
       </c>
       <c r="L35" t="n">
         <v>911.796131143009</v>
@@ -6950,22 +6950,22 @@
         <v>1872.198988676085</v>
       </c>
       <c r="O35" t="n">
-        <v>2267.073599321051</v>
+        <v>2267.07359932105</v>
       </c>
       <c r="P35" t="n">
         <v>2571.932483898478</v>
       </c>
       <c r="Q35" t="n">
-        <v>2723.964736331494</v>
+        <v>2723.964736331493</v>
       </c>
       <c r="R35" t="n">
-        <v>2723.964736331494</v>
+        <v>2723.964736331493</v>
       </c>
       <c r="S35" t="n">
         <v>2703.265184067726</v>
       </c>
       <c r="T35" t="n">
-        <v>2635.416592098073</v>
+        <v>2635.416592098072</v>
       </c>
       <c r="U35" t="n">
         <v>2534.702829655338</v>
@@ -6980,7 +6980,7 @@
         <v>1915.542593939082</v>
       </c>
       <c r="Y35" t="n">
-        <v>1676.128774851156</v>
+        <v>1676.128774851157</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>112.8362090731988</v>
       </c>
       <c r="I36" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="J36" t="n">
         <v>141.6963688081575</v>
@@ -7023,16 +7023,16 @@
         <v>845.0582457564572</v>
       </c>
       <c r="M36" t="n">
-        <v>1133.131916832635</v>
+        <v>938.9307320881596</v>
       </c>
       <c r="N36" t="n">
-        <v>1718.622280503403</v>
+        <v>1524.421095758928</v>
       </c>
       <c r="O36" t="n">
-        <v>2178.723346868039</v>
+        <v>1984.522162123563</v>
       </c>
       <c r="P36" t="n">
-        <v>2535.315897665168</v>
+        <v>2341.114712920693</v>
       </c>
       <c r="Q36" t="n">
         <v>2535.315897665168</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>87.58900179270626</v>
+        <v>107.3029779201084</v>
       </c>
       <c r="C37" t="n">
-        <v>72.10106859062262</v>
+        <v>91.81504471802498</v>
       </c>
       <c r="D37" t="n">
-        <v>72.10106859062262</v>
+        <v>91.81504471802498</v>
       </c>
       <c r="E37" t="n">
-        <v>72.10106859062262</v>
+        <v>91.81504471802498</v>
       </c>
       <c r="F37" t="n">
-        <v>72.10106859062262</v>
+        <v>91.81504471802498</v>
       </c>
       <c r="G37" t="n">
-        <v>57.55347413000763</v>
+        <v>77.26745025741016</v>
       </c>
       <c r="H37" t="n">
-        <v>54.47929472662988</v>
+        <v>74.19327085403259</v>
       </c>
       <c r="I37" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="J37" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="K37" t="n">
         <v>115.881131553196</v>
@@ -7102,43 +7102,43 @@
         <v>252.0596313827016</v>
       </c>
       <c r="M37" t="n">
-        <v>407.5582128717739</v>
+        <v>407.5582128717738</v>
       </c>
       <c r="N37" t="n">
-        <v>562.5938431187143</v>
+        <v>562.5938431187142</v>
       </c>
       <c r="O37" t="n">
-        <v>694.8757875741642</v>
+        <v>694.875787574164</v>
       </c>
       <c r="P37" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="Q37" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="R37" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="S37" t="n">
-        <v>711.7402732042503</v>
+        <v>731.4542493316513</v>
       </c>
       <c r="T37" t="n">
-        <v>633.7324052888061</v>
+        <v>653.4463814162074</v>
       </c>
       <c r="U37" t="n">
-        <v>500.6835176324312</v>
+        <v>520.3974937598325</v>
       </c>
       <c r="V37" t="n">
-        <v>394.0762495270898</v>
+        <v>413.7902256544913</v>
       </c>
       <c r="W37" t="n">
-        <v>262.047884380725</v>
+        <v>281.7618605081267</v>
       </c>
       <c r="X37" t="n">
-        <v>184.9234566123368</v>
+        <v>204.6374327397387</v>
       </c>
       <c r="Y37" t="n">
-        <v>117.01633414085</v>
+        <v>136.730310268252</v>
       </c>
     </row>
     <row r="38">
@@ -7157,28 +7157,28 @@
         <v>989.7116209018761</v>
       </c>
       <c r="E38" t="n">
-        <v>749.0539373442191</v>
+        <v>749.053937344219</v>
       </c>
       <c r="F38" t="n">
         <v>489.0307829906255</v>
       </c>
       <c r="G38" t="n">
-        <v>227.5990516189934</v>
+        <v>227.5990516189932</v>
       </c>
       <c r="H38" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="I38" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="J38" t="n">
-        <v>171.7485537137827</v>
+        <v>171.7485537137826</v>
       </c>
       <c r="K38" t="n">
-        <v>479.7379918932081</v>
+        <v>479.737991893208</v>
       </c>
       <c r="L38" t="n">
-        <v>911.796131143009</v>
+        <v>911.7961311430089</v>
       </c>
       <c r="M38" t="n">
         <v>1398.693718110223</v>
@@ -7193,10 +7193,10 @@
         <v>2571.932483898478</v>
       </c>
       <c r="Q38" t="n">
-        <v>2723.964736331494</v>
+        <v>2723.964736331493</v>
       </c>
       <c r="R38" t="n">
-        <v>2723.964736331494</v>
+        <v>2723.964736331493</v>
       </c>
       <c r="S38" t="n">
         <v>2703.265184067726</v>
@@ -7205,19 +7205,19 @@
         <v>2635.416592098072</v>
       </c>
       <c r="U38" t="n">
-        <v>2534.702829655338</v>
+        <v>2534.702829655337</v>
       </c>
       <c r="V38" t="n">
         <v>2351.851591887515</v>
       </c>
       <c r="W38" t="n">
-        <v>2143.444698081353</v>
+        <v>2143.444698081352</v>
       </c>
       <c r="X38" t="n">
-        <v>1915.542593939082</v>
+        <v>1915.542593939081</v>
       </c>
       <c r="Y38" t="n">
-        <v>1676.128774851156</v>
+        <v>1676.128774851155</v>
       </c>
     </row>
     <row r="39">
@@ -7248,19 +7248,19 @@
         <v>112.8362090731988</v>
       </c>
       <c r="I39" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="J39" t="n">
         <v>141.6963688081575</v>
       </c>
       <c r="K39" t="n">
-        <v>417.2708591405124</v>
+        <v>381.5865144364213</v>
       </c>
       <c r="L39" t="n">
-        <v>845.0582457564572</v>
+        <v>381.5865144364213</v>
       </c>
       <c r="M39" t="n">
-        <v>1402.402463408195</v>
+        <v>938.9307320881596</v>
       </c>
       <c r="N39" t="n">
         <v>1524.421095758928</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>107.3029779201074</v>
+        <v>89.20717640051112</v>
       </c>
       <c r="C40" t="n">
-        <v>91.81504471802373</v>
+        <v>73.71924319842765</v>
       </c>
       <c r="D40" t="n">
-        <v>91.81504471802373</v>
+        <v>73.71924319842765</v>
       </c>
       <c r="E40" t="n">
-        <v>91.81504471802373</v>
+        <v>73.71924319842765</v>
       </c>
       <c r="F40" t="n">
-        <v>91.81504471802373</v>
+        <v>73.71924319842765</v>
       </c>
       <c r="G40" t="n">
-        <v>77.26745025740874</v>
+        <v>59.17164873781283</v>
       </c>
       <c r="H40" t="n">
-        <v>74.193270854031</v>
+        <v>56.09746933443525</v>
       </c>
       <c r="I40" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="J40" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="K40" t="n">
         <v>115.881131553196</v>
@@ -7339,43 +7339,43 @@
         <v>252.0596313827016</v>
       </c>
       <c r="M40" t="n">
-        <v>407.5582128717739</v>
+        <v>407.5582128717738</v>
       </c>
       <c r="N40" t="n">
-        <v>562.5938431187143</v>
+        <v>562.5938431187142</v>
       </c>
       <c r="O40" t="n">
-        <v>694.8757875741642</v>
+        <v>694.875787574164</v>
       </c>
       <c r="P40" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="Q40" t="n">
-        <v>786.7816674983818</v>
+        <v>768.6858659787842</v>
       </c>
       <c r="R40" t="n">
-        <v>786.7816674983818</v>
+        <v>768.6858659787842</v>
       </c>
       <c r="S40" t="n">
-        <v>731.4542493316515</v>
+        <v>713.358447812054</v>
       </c>
       <c r="T40" t="n">
-        <v>653.4463814162073</v>
+        <v>635.35057989661</v>
       </c>
       <c r="U40" t="n">
-        <v>520.3974937598323</v>
+        <v>502.3016922402352</v>
       </c>
       <c r="V40" t="n">
-        <v>413.7902256544909</v>
+        <v>395.694424134894</v>
       </c>
       <c r="W40" t="n">
-        <v>281.7618605081261</v>
+        <v>263.6660589885294</v>
       </c>
       <c r="X40" t="n">
-        <v>204.637432739738</v>
+        <v>186.5416312201414</v>
       </c>
       <c r="Y40" t="n">
-        <v>136.7303102682511</v>
+        <v>118.6345087486547</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1436.213271669373</v>
+        <v>1436.213271669374</v>
       </c>
       <c r="C41" t="n">
-        <v>1208.407549338416</v>
+        <v>1208.407549338418</v>
       </c>
       <c r="D41" t="n">
-        <v>989.7116209018761</v>
+        <v>989.7116209018773</v>
       </c>
       <c r="E41" t="n">
-        <v>749.0539373442191</v>
+        <v>749.0539373442201</v>
       </c>
       <c r="F41" t="n">
-        <v>489.0307829906255</v>
+        <v>489.0307829906264</v>
       </c>
       <c r="G41" t="n">
-        <v>227.5990516189934</v>
+        <v>227.5990516189933</v>
       </c>
       <c r="H41" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="I41" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="J41" t="n">
-        <v>171.7485537137827</v>
+        <v>171.7485537137826</v>
       </c>
       <c r="K41" t="n">
-        <v>479.7379918932081</v>
+        <v>479.737991893208</v>
       </c>
       <c r="L41" t="n">
-        <v>911.796131143009</v>
+        <v>911.7961311430089</v>
       </c>
       <c r="M41" t="n">
         <v>1398.693718110223</v>
@@ -7430,10 +7430,10 @@
         <v>2571.932483898478</v>
       </c>
       <c r="Q41" t="n">
-        <v>2723.964736331494</v>
+        <v>2723.964736331493</v>
       </c>
       <c r="R41" t="n">
-        <v>2723.964736331494</v>
+        <v>2723.964736331493</v>
       </c>
       <c r="S41" t="n">
         <v>2703.265184067726</v>
@@ -7454,7 +7454,7 @@
         <v>1915.542593939082</v>
       </c>
       <c r="Y41" t="n">
-        <v>1676.128774851156</v>
+        <v>1676.128774851157</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7485,25 @@
         <v>112.8362090731988</v>
       </c>
       <c r="I42" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="J42" t="n">
-        <v>54.47929472662988</v>
+        <v>141.6963688081575</v>
       </c>
       <c r="K42" t="n">
-        <v>54.47929472662988</v>
+        <v>417.2708591405124</v>
       </c>
       <c r="L42" t="n">
-        <v>482.2666813425746</v>
+        <v>845.0582457564572</v>
       </c>
       <c r="M42" t="n">
-        <v>1039.610898994313</v>
+        <v>1402.402463408195</v>
       </c>
       <c r="N42" t="n">
-        <v>1625.101262665081</v>
+        <v>1524.421095758928</v>
       </c>
       <c r="O42" t="n">
-        <v>2085.202329029717</v>
+        <v>1984.522162123563</v>
       </c>
       <c r="P42" t="n">
         <v>2341.114712920693</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>87.58900179270617</v>
+        <v>107.3029779201081</v>
       </c>
       <c r="C43" t="n">
-        <v>72.10106859062256</v>
+        <v>91.81504471802458</v>
       </c>
       <c r="D43" t="n">
-        <v>72.10106859062256</v>
+        <v>91.81504471802458</v>
       </c>
       <c r="E43" t="n">
-        <v>72.10106859062256</v>
+        <v>91.81504471802458</v>
       </c>
       <c r="F43" t="n">
-        <v>72.10106859062256</v>
+        <v>91.81504471802458</v>
       </c>
       <c r="G43" t="n">
-        <v>57.5534741300076</v>
+        <v>77.26745025740971</v>
       </c>
       <c r="H43" t="n">
-        <v>54.47929472662988</v>
+        <v>74.19327085403208</v>
       </c>
       <c r="I43" t="n">
-        <v>54.47929472662988</v>
+        <v>74.19327085403208</v>
       </c>
       <c r="J43" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="K43" t="n">
         <v>115.881131553196</v>
@@ -7576,43 +7576,43 @@
         <v>252.0596313827016</v>
       </c>
       <c r="M43" t="n">
-        <v>407.5582128717739</v>
+        <v>407.5582128717738</v>
       </c>
       <c r="N43" t="n">
-        <v>562.5938431187143</v>
+        <v>562.5938431187142</v>
       </c>
       <c r="O43" t="n">
-        <v>694.8757875741642</v>
+        <v>694.875787574164</v>
       </c>
       <c r="P43" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="Q43" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="R43" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="S43" t="n">
-        <v>731.4542493316515</v>
+        <v>731.4542493316513</v>
       </c>
       <c r="T43" t="n">
-        <v>633.7324052888059</v>
+        <v>653.4463814162073</v>
       </c>
       <c r="U43" t="n">
-        <v>500.6835176324309</v>
+        <v>520.3974937598324</v>
       </c>
       <c r="V43" t="n">
-        <v>394.0762495270897</v>
+        <v>413.7902256544912</v>
       </c>
       <c r="W43" t="n">
-        <v>262.0478843807248</v>
+        <v>281.7618605081265</v>
       </c>
       <c r="X43" t="n">
-        <v>184.9234566123367</v>
+        <v>204.6374327397385</v>
       </c>
       <c r="Y43" t="n">
-        <v>117.0163341408499</v>
+        <v>136.7303102682517</v>
       </c>
     </row>
     <row r="44">
@@ -7625,19 +7625,19 @@
         <v>1436.213271669373</v>
       </c>
       <c r="C44" t="n">
-        <v>1208.407549338417</v>
+        <v>1208.407549338416</v>
       </c>
       <c r="D44" t="n">
-        <v>989.7116209018761</v>
+        <v>989.7116209018757</v>
       </c>
       <c r="E44" t="n">
-        <v>749.0539373442191</v>
+        <v>749.0539373442186</v>
       </c>
       <c r="F44" t="n">
-        <v>489.0307829906255</v>
+        <v>489.0307829906253</v>
       </c>
       <c r="G44" t="n">
-        <v>227.5990516189934</v>
+        <v>227.5990516189933</v>
       </c>
       <c r="H44" t="n">
         <v>54.47929472662988</v>
@@ -7661,7 +7661,7 @@
         <v>1872.198988676085</v>
       </c>
       <c r="O44" t="n">
-        <v>2267.07359932105</v>
+        <v>2267.073599321051</v>
       </c>
       <c r="P44" t="n">
         <v>2571.932483898478</v>
@@ -7673,19 +7673,19 @@
         <v>2723.964736331494</v>
       </c>
       <c r="S44" t="n">
-        <v>2703.265184067726</v>
+        <v>2703.265184067727</v>
       </c>
       <c r="T44" t="n">
         <v>2635.416592098073</v>
       </c>
       <c r="U44" t="n">
-        <v>2534.702829655338</v>
+        <v>2534.702829655339</v>
       </c>
       <c r="V44" t="n">
         <v>2351.851591887515</v>
       </c>
       <c r="W44" t="n">
-        <v>2143.444698081353</v>
+        <v>2143.444698081352</v>
       </c>
       <c r="X44" t="n">
         <v>1915.542593939082</v>
@@ -7725,25 +7725,25 @@
         <v>54.47929472662988</v>
       </c>
       <c r="J45" t="n">
-        <v>54.47929472662988</v>
+        <v>141.6963688081575</v>
       </c>
       <c r="K45" t="n">
-        <v>330.0537850589848</v>
+        <v>417.2708591405124</v>
       </c>
       <c r="L45" t="n">
-        <v>575.7876991808969</v>
+        <v>845.0582457564572</v>
       </c>
       <c r="M45" t="n">
-        <v>1133.131916832635</v>
+        <v>1402.402463408195</v>
       </c>
       <c r="N45" t="n">
-        <v>1718.622280503403</v>
+        <v>1881.013646556057</v>
       </c>
       <c r="O45" t="n">
-        <v>2178.723346868039</v>
+        <v>2341.114712920693</v>
       </c>
       <c r="P45" t="n">
-        <v>2535.315897665168</v>
+        <v>2341.114712920693</v>
       </c>
       <c r="Q45" t="n">
         <v>2535.315897665168</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>87.58900179270617</v>
+        <v>107.3029779201083</v>
       </c>
       <c r="C46" t="n">
-        <v>72.10106859062256</v>
+        <v>72.10106859062239</v>
       </c>
       <c r="D46" t="n">
-        <v>72.10106859062256</v>
+        <v>72.10106859062239</v>
       </c>
       <c r="E46" t="n">
-        <v>72.10106859062256</v>
+        <v>72.10106859062239</v>
       </c>
       <c r="F46" t="n">
-        <v>72.10106859062256</v>
+        <v>72.10106859062239</v>
       </c>
       <c r="G46" t="n">
-        <v>57.5534741300076</v>
+        <v>57.55347413000752</v>
       </c>
       <c r="H46" t="n">
         <v>54.47929472662988</v>
@@ -7831,25 +7831,25 @@
         <v>786.7816674983818</v>
       </c>
       <c r="S46" t="n">
-        <v>731.4542493316515</v>
+        <v>731.4542493316516</v>
       </c>
       <c r="T46" t="n">
-        <v>653.4463814162073</v>
+        <v>653.4463814162075</v>
       </c>
       <c r="U46" t="n">
-        <v>500.6835176324309</v>
+        <v>520.3974937598326</v>
       </c>
       <c r="V46" t="n">
-        <v>394.0762495270897</v>
+        <v>413.7902256544915</v>
       </c>
       <c r="W46" t="n">
-        <v>262.0478843807248</v>
+        <v>281.7618605081267</v>
       </c>
       <c r="X46" t="n">
-        <v>184.9234566123367</v>
+        <v>204.6374327397387</v>
       </c>
       <c r="Y46" t="n">
-        <v>117.0163341408499</v>
+        <v>136.730310268252</v>
       </c>
     </row>
   </sheetData>
@@ -8687,10 +8687,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>101.3718027669759</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K11" t="n">
-        <v>349.2884508079972</v>
+        <v>230.8346538512778</v>
       </c>
       <c r="L11" t="n">
         <v>542.9595789155856</v>
@@ -8766,19 +8766,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>75.82029131472584</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>65.44673707356948</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
-        <v>380.3953106054545</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>623.1450866466196</v>
+        <v>154.9918226869893</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
@@ -8930,13 +8930,13 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L14" t="n">
-        <v>352.4051964243486</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M14" t="n">
         <v>584.3675935406823</v>
       </c>
       <c r="N14" t="n">
-        <v>568.5510017355793</v>
+        <v>377.9966192443425</v>
       </c>
       <c r="O14" t="n">
         <v>495.0402356415689</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>101.3718027669759</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
         <v>421.3890363425141</v>
@@ -9170,10 +9170,10 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M17" t="n">
-        <v>512.2670080061653</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N17" t="n">
-        <v>568.5510017355793</v>
+        <v>377.9966192443425</v>
       </c>
       <c r="O17" t="n">
         <v>495.0402356415689</v>
@@ -9240,7 +9240,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>163.9183459425315</v>
+        <v>75.82029131472584</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
@@ -9249,7 +9249,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>137.2633189153692</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
         <v>623.1450866466196</v>
@@ -9258,10 +9258,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>414.0015992319183</v>
+        <v>230.1092027733001</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>76.93766118339641</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9401,7 +9401,7 @@
         <v>101.3718027669759</v>
       </c>
       <c r="K20" t="n">
-        <v>349.2884508079972</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L20" t="n">
         <v>542.9595789155856</v>
@@ -9419,7 +9419,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
-        <v>276.0094878578761</v>
+        <v>203.9089023233596</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9477,19 +9477,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>75.82029131472584</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>65.44673707356948</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>380.3953106054545</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>623.1450866466196</v>
+        <v>154.9918226869888</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>182.83914898298</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
         <v>421.3890363425141</v>
@@ -9647,7 +9647,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N23" t="n">
-        <v>568.5510017355793</v>
+        <v>377.9966192443425</v>
       </c>
       <c r="O23" t="n">
         <v>495.0402356415689</v>
@@ -9656,7 +9656,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q23" t="n">
-        <v>122.4415561073551</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9720,13 +9720,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>482.0924488944969</v>
+        <v>49.98397756525983</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>351.1546355601955</v>
+        <v>587.1002940162258</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9735,7 +9735,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>76.93766118339641</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9963,7 +9963,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>351.1546355601952</v>
+        <v>154.9918226869875</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -9972,7 +9972,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>76.93766118339639</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10200,7 +10200,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>351.1546355601952</v>
+        <v>154.9918226869881</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10209,7 +10209,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>76.93766118339639</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10431,22 +10431,22 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
-        <v>482.0924488944969</v>
+        <v>49.98397756525983</v>
       </c>
       <c r="M33" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>351.1546355601952</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
-        <v>414.0015992319183</v>
+        <v>377.9568066015241</v>
       </c>
       <c r="Q33" t="n">
-        <v>76.93766118339641</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10671,7 +10671,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
-        <v>333.4261317885754</v>
+        <v>137.2633189153678</v>
       </c>
       <c r="N36" t="n">
         <v>623.1450866466196</v>
@@ -10683,7 +10683,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>76.93766118339641</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10841,7 +10841,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578762</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10902,16 +10902,16 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>343.8048081163522</v>
+        <v>307.7600154859572</v>
       </c>
       <c r="L39" t="n">
-        <v>482.0924488944969</v>
+        <v>49.98397756525983</v>
       </c>
       <c r="M39" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>154.9918226869874</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -11136,10 +11136,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>75.82029131472584</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>65.44673707356948</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11148,13 +11148,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>623.1450866466196</v>
+        <v>154.9918226869874</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>312.3044609428747</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
         <v>273.1004740566038</v>
@@ -11315,7 +11315,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
-        <v>276.0094878578766</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -11373,28 +11373,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>75.82029131472584</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>298.2000524358781</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>623.1450866466196</v>
+        <v>515.1863184416638</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>414.0015992319183</v>
+        <v>53.80710347724201</v>
       </c>
       <c r="Q45" t="n">
-        <v>76.93766118339641</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23258,13 +23258,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>289.1172887419688</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>227.5986491248641</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>120.2039381859364</v>
       </c>
       <c r="F11" t="n">
         <v>321.0125464443795</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>163.2962484526289</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>244.6123490244662</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>289.2127067351697</v>
       </c>
       <c r="Y11" t="n">
-        <v>300.6093045313685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>92.72268265898416</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>78.92267750438467</v>
       </c>
       <c r="D13" t="n">
-        <v>62.54404190196303</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>61.95871608592878</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>66.63306124366585</v>
       </c>
       <c r="I13" t="n">
-        <v>46.49600542227648</v>
+        <v>46.49600542227651</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>58.17748653690264</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>129.8471884357295</v>
       </c>
     </row>
     <row r="14">
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>301.1059717842871</v>
       </c>
       <c r="C14" t="n">
-        <v>289.1172887419688</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>19.0965537008009</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>234.9781829577617</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>61.32070768241301</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>33.49431279623539</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,13 +23552,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6123490244662</v>
+        <v>244.6123490244663</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>269.9124485024232</v>
       </c>
       <c r="X14" t="n">
-        <v>289.2127067351697</v>
+        <v>289.2127067351698</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>50.5454736726701</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>62.54404190196311</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>41.13871261041817</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>77.99174215033077</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>140.8174128706116</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>139.9428071250261</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>130.8176748810939</v>
       </c>
     </row>
     <row r="17">
@@ -25922,7 +25922,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>-1.005145719253873e-12</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>898281.7670572405</v>
+        <v>898281.7670572402</v>
       </c>
     </row>
     <row r="7">
@@ -26317,10 +26317,10 @@
         <v>497819.8104797477</v>
       </c>
       <c r="D2" t="n">
-        <v>497819.8104797477</v>
+        <v>497819.8104797478</v>
       </c>
       <c r="E2" t="n">
-        <v>435036.4187778482</v>
+        <v>435036.4187778486</v>
       </c>
       <c r="F2" t="n">
         <v>435036.4187778486</v>
@@ -26329,31 +26329,31 @@
         <v>498955.6393212184</v>
       </c>
       <c r="H2" t="n">
-        <v>498955.6393212184</v>
+        <v>498955.6393212185</v>
       </c>
       <c r="I2" t="n">
-        <v>498955.6393212186</v>
+        <v>498955.6393212181</v>
       </c>
       <c r="J2" t="n">
-        <v>498955.6393212177</v>
+        <v>498955.6393212176</v>
       </c>
       <c r="K2" t="n">
-        <v>498955.639321218</v>
+        <v>498955.6393212176</v>
       </c>
       <c r="L2" t="n">
         <v>498955.6393212175</v>
       </c>
       <c r="M2" t="n">
+        <v>498955.6393212191</v>
+      </c>
+      <c r="N2" t="n">
         <v>498955.639321218</v>
       </c>
-      <c r="N2" t="n">
-        <v>498955.6393212181</v>
-      </c>
       <c r="O2" t="n">
+        <v>498955.6393212174</v>
+      </c>
+      <c r="P2" t="n">
         <v>498955.639321218</v>
-      </c>
-      <c r="P2" t="n">
-        <v>498955.6393212177</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>367830.3395149715</v>
+        <v>367830.3395149714</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>61543.83320915246</v>
+        <v>61543.83320915249</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>83547.74167613924</v>
+        <v>83547.74167613922</v>
       </c>
       <c r="K3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>61543.83320915249</v>
+        <v>61543.83320915248</v>
       </c>
       <c r="M3" t="n">
-        <v>149683.3109415064</v>
+        <v>149683.3109415065</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>20455.48779561258</v>
+        <v>20455.4877956125</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,7 +26427,7 @@
         <v>255024.1601164463</v>
       </c>
       <c r="F4" t="n">
-        <v>255024.1601164463</v>
+        <v>255024.1601164462</v>
       </c>
       <c r="G4" t="n">
         <v>310950.7206745582</v>
@@ -26442,22 +26442,22 @@
         <v>309193.0084127064</v>
       </c>
       <c r="K4" t="n">
-        <v>309193.0084127063</v>
+        <v>309193.0084127064</v>
       </c>
       <c r="L4" t="n">
         <v>309193.0084127064</v>
       </c>
       <c r="M4" t="n">
-        <v>308176.3362657601</v>
+        <v>308176.3362657602</v>
       </c>
       <c r="N4" t="n">
-        <v>308176.3362657601</v>
+        <v>308176.3362657602</v>
       </c>
       <c r="O4" t="n">
         <v>308176.3362657602</v>
       </c>
       <c r="P4" t="n">
-        <v>308176.3362657601</v>
+        <v>308176.3362657602</v>
       </c>
     </row>
     <row r="5">
@@ -26494,10 +26494,10 @@
         <v>64678.11138462555</v>
       </c>
       <c r="K5" t="n">
-        <v>64678.11138462554</v>
+        <v>64678.11138462555</v>
       </c>
       <c r="L5" t="n">
-        <v>64678.11138462554</v>
+        <v>64678.11138462555</v>
       </c>
       <c r="M5" t="n">
         <v>57153.73105654695</v>
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>62584.80406543989</v>
+        <v>62580.43549297275</v>
       </c>
       <c r="C6" t="n">
-        <v>62584.80406544</v>
+        <v>62580.43549297281</v>
       </c>
       <c r="D6" t="n">
-        <v>62584.80406543989</v>
+        <v>62580.43549297287</v>
       </c>
       <c r="E6" t="n">
-        <v>-236699.913853325</v>
+        <v>-236945.7570092605</v>
       </c>
       <c r="F6" t="n">
-        <v>131130.4256616469</v>
+        <v>130884.582505711</v>
       </c>
       <c r="G6" t="n">
         <v>71111.84179517697</v>
@@ -26540,28 +26540,28 @@
         <v>132655.6750043295</v>
       </c>
       <c r="I6" t="n">
-        <v>132655.6750043296</v>
+        <v>132655.6750043292</v>
       </c>
       <c r="J6" t="n">
-        <v>41536.7778477465</v>
+        <v>41536.77784774645</v>
       </c>
       <c r="K6" t="n">
-        <v>125084.5195238861</v>
+        <v>125084.5195238856</v>
       </c>
       <c r="L6" t="n">
-        <v>63540.68631473301</v>
+        <v>63540.68631473312</v>
       </c>
       <c r="M6" t="n">
-        <v>-16057.73894259558</v>
+        <v>-16057.73894259466</v>
       </c>
       <c r="N6" t="n">
-        <v>133625.571998911</v>
+        <v>133625.5719989107</v>
       </c>
       <c r="O6" t="n">
-        <v>113170.0842032983</v>
+        <v>113170.0842032977</v>
       </c>
       <c r="P6" t="n">
-        <v>133625.5719989106</v>
+        <v>133625.5719989108</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="F2" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855178</v>
       </c>
       <c r="G2" t="n">
         <v>165.9269238499924</v>
@@ -26716,16 +26716,16 @@
         <v>102.4991512559563</v>
       </c>
       <c r="M2" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="N2" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="O2" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="P2" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
     </row>
     <row r="3">
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>134.0206915791157</v>
+        <v>134.0206915791156</v>
       </c>
       <c r="F3" t="n">
         <v>134.0206915791157</v>
@@ -26762,7 +26762,7 @@
         <v>134.0206915791158</v>
       </c>
       <c r="K3" t="n">
-        <v>134.0206915791158</v>
+        <v>134.0206915791157</v>
       </c>
       <c r="L3" t="n">
         <v>134.0206915791157</v>
@@ -26814,19 +26814,19 @@
         <v>874.0042625207867</v>
       </c>
       <c r="K4" t="n">
-        <v>874.0042625207866</v>
+        <v>874.0042625207867</v>
       </c>
       <c r="L4" t="n">
-        <v>874.0042625207866</v>
+        <v>874.0042625207867</v>
       </c>
       <c r="M4" t="n">
-        <v>680.9911840828735</v>
+        <v>680.9911840828734</v>
       </c>
       <c r="N4" t="n">
-        <v>680.9911840828735</v>
+        <v>680.9911840828734</v>
       </c>
       <c r="O4" t="n">
-        <v>680.9911840828735</v>
+        <v>680.9911840828734</v>
       </c>
       <c r="P4" t="n">
         <v>680.9911840828735</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>76.92979151144058</v>
+        <v>76.92979151144061</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.56935974451569</v>
+        <v>25.56935974451568</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>76.92979151144061</v>
+        <v>76.9297915114406</v>
       </c>
       <c r="M2" t="n">
-        <v>50.08760471691738</v>
+        <v>50.08760471691758</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.56935974451572</v>
+        <v>25.56935974451562</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>134.0206915791157</v>
+        <v>134.0206915791156</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>439.853401903551</v>
+        <v>439.8534019035508</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>76.92979151144058</v>
+        <v>76.92979151144061</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.56935974451569</v>
+        <v>25.56935974451568</v>
       </c>
       <c r="P2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="C11" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="D11" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="E11" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="F11" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="G11" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="H11" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="I11" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>55.88797492591272</v>
+        <v>55.88797492591274</v>
       </c>
       <c r="S11" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="T11" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="U11" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="V11" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="W11" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="X11" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="Y11" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="C13" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="D13" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="E13" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="F13" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="G13" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="H13" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="I13" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="J13" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="K13" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="L13" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="M13" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="N13" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="O13" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="P13" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="R13" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="S13" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="T13" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="U13" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="V13" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="W13" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="X13" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="Y13" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855184</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855178</v>
       </c>
       <c r="C14" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855178</v>
       </c>
       <c r="D14" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855178</v>
       </c>
       <c r="E14" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855178</v>
       </c>
       <c r="F14" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855178</v>
       </c>
       <c r="G14" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855178</v>
       </c>
       <c r="H14" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855178</v>
       </c>
       <c r="I14" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855178</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>55.88797492591272</v>
       </c>
       <c r="S14" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855178</v>
       </c>
       <c r="T14" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855178</v>
       </c>
       <c r="U14" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855178</v>
       </c>
       <c r="V14" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855178</v>
       </c>
       <c r="W14" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855178</v>
       </c>
       <c r="X14" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855178</v>
       </c>
       <c r="Y14" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855178</v>
       </c>
     </row>
     <row r="15">
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>-6.181721801112872e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>-3.765876499528531e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855178</v>
       </c>
       <c r="C16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855178</v>
       </c>
       <c r="D16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855178</v>
       </c>
       <c r="E16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855178</v>
       </c>
       <c r="F16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855178</v>
       </c>
       <c r="G16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855178</v>
       </c>
       <c r="H16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855178</v>
       </c>
       <c r="I16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855178</v>
       </c>
       <c r="J16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855178</v>
       </c>
       <c r="K16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855178</v>
       </c>
       <c r="L16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855178</v>
       </c>
       <c r="M16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855178</v>
       </c>
       <c r="N16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855178</v>
       </c>
       <c r="O16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855178</v>
       </c>
       <c r="P16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855178</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855178</v>
       </c>
       <c r="R16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855178</v>
       </c>
       <c r="S16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855178</v>
       </c>
       <c r="T16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855178</v>
       </c>
       <c r="U16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855178</v>
       </c>
       <c r="V16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855178</v>
       </c>
       <c r="W16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855178</v>
       </c>
       <c r="X16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855178</v>
       </c>
       <c r="Y16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855178</v>
       </c>
     </row>
     <row r="17">
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-6.181721801112872e-13</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28728,13 +28728,13 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>160.4538951996285</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="H19" t="n">
         <v>155.6301935822177</v>
@@ -28785,7 +28785,7 @@
         <v>165.9269238499924</v>
       </c>
       <c r="X19" t="n">
-        <v>165.9269238499924</v>
+        <v>9.964971103334562</v>
       </c>
       <c r="Y19" t="n">
         <v>165.9269238499924</v>
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-6.181721801112872e-13</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28968,7 +28968,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
         <v>165.9269238499924</v>
@@ -29025,7 +29025,7 @@
         <v>165.9269238499924</v>
       </c>
       <c r="Y22" t="n">
-        <v>160.9208195278148</v>
+        <v>9.964971103334591</v>
       </c>
     </row>
     <row r="23">
@@ -29208,7 +29208,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>27.87981460773551</v>
+        <v>9.964971103334278</v>
       </c>
       <c r="H25" t="n">
         <v>155.6301935822177</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>17.91484350440139</v>
       </c>
       <c r="R25" t="n">
         <v>137.1599022512687</v>
@@ -29314,10 +29314,10 @@
         <v>102.4991512559563</v>
       </c>
       <c r="P26" t="n">
-        <v>0.1485704102018417</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="Q26" t="n">
-        <v>102.4991512559563</v>
+        <v>0.1485704102016712</v>
       </c>
       <c r="R26" t="n">
         <v>102.4991512559563</v>
@@ -29548,16 +29548,16 @@
         <v>102.4991512559563</v>
       </c>
       <c r="O29" t="n">
-        <v>0.1485704102008185</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="P29" t="n">
-        <v>102.4991512559563</v>
+        <v>46.75974674024553</v>
       </c>
       <c r="Q29" t="n">
         <v>102.4991512559563</v>
       </c>
       <c r="R29" t="n">
-        <v>102.4991512559563</v>
+        <v>55.88797492591272</v>
       </c>
       <c r="S29" t="n">
         <v>102.4991512559563</v>
@@ -29788,10 +29788,10 @@
         <v>102.4991512559563</v>
       </c>
       <c r="P32" t="n">
-        <v>0.1485704102013869</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="Q32" t="n">
-        <v>102.4991512559563</v>
+        <v>0.1485704102021543</v>
       </c>
       <c r="R32" t="n">
         <v>102.4991512559563</v>
@@ -29928,7 +29928,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="J34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559566</v>
       </c>
       <c r="K34" t="n">
         <v>102.4991512559563</v>
@@ -29943,7 +29943,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="O34" t="n">
-        <v>102.4991512559556</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="P34" t="n">
         <v>102.4991512559563</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="C35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="D35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="E35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="F35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="G35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="H35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="I35" t="n">
         <v>150.3178400209649</v>
@@ -30034,25 +30034,25 @@
         <v>55.88797492591272</v>
       </c>
       <c r="S35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="T35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="U35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="V35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="W35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="X35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="Y35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728739</v>
       </c>
     </row>
     <row r="36">
@@ -30141,10 +30141,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="C37" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -30156,13 +30156,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="H37" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="I37" t="n">
-        <v>135.4931377608283</v>
+        <v>115.9763013946996</v>
       </c>
       <c r="J37" t="n">
         <v>42.3701265538906</v>
@@ -30192,25 +30192,25 @@
         <v>137.1599022512687</v>
       </c>
       <c r="S37" t="n">
-        <v>133.0699196067466</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="T37" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="U37" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="V37" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="W37" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="X37" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="Y37" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728739</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="C38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="D38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="E38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="F38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="G38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="H38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="I38" t="n">
         <v>150.3178400209649</v>
@@ -30271,25 +30271,25 @@
         <v>55.88797492591272</v>
       </c>
       <c r="S38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="T38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="U38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="V38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="W38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="X38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="Y38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728739</v>
       </c>
     </row>
     <row r="39">
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="C40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -30393,13 +30393,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="H40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="I40" t="n">
-        <v>115.9763013947012</v>
+        <v>133.891144899101</v>
       </c>
       <c r="J40" t="n">
         <v>42.3701265538906</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.91484350440139</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>137.1599022512687</v>
       </c>
       <c r="S40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="T40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="U40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="V40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="W40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="X40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="Y40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728739</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="C41" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="D41" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="E41" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="F41" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="G41" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="H41" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="I41" t="n">
         <v>150.3178400209649</v>
@@ -30508,25 +30508,25 @@
         <v>55.88797492591272</v>
       </c>
       <c r="S41" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="T41" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="U41" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="V41" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="W41" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="X41" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="Y41" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
     </row>
     <row r="42">
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="C43" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30630,16 +30630,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="H43" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="I43" t="n">
         <v>135.4931377608283</v>
       </c>
       <c r="J43" t="n">
-        <v>42.3701265538906</v>
+        <v>22.85329018776241</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30666,25 +30666,25 @@
         <v>137.1599022512687</v>
       </c>
       <c r="S43" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="T43" t="n">
-        <v>133.0699196067464</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="U43" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="V43" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="W43" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="X43" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="Y43" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="C44" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="D44" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="E44" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="F44" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="G44" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="H44" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="I44" t="n">
         <v>150.3178400209649</v>
@@ -30745,25 +30745,25 @@
         <v>55.88797492591272</v>
       </c>
       <c r="S44" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="T44" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="U44" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="V44" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="W44" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="X44" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="Y44" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
     </row>
     <row r="45">
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="C46" t="n">
-        <v>152.5867559728737</v>
+        <v>133.0699196067454</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -30867,10 +30867,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="H46" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="I46" t="n">
         <v>135.4931377608283</v>
@@ -30903,25 +30903,25 @@
         <v>137.1599022512687</v>
       </c>
       <c r="S46" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="T46" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="U46" t="n">
-        <v>133.0699196067465</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="V46" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="W46" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="X46" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="Y46" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5387766495642837</v>
+        <v>0.5387766495642833</v>
       </c>
       <c r="H11" t="n">
-        <v>5.517746362350223</v>
+        <v>5.517746362350218</v>
       </c>
       <c r="I11" t="n">
-        <v>20.77118678232707</v>
+        <v>20.77118678232705</v>
       </c>
       <c r="J11" t="n">
-        <v>45.72799466095667</v>
+        <v>45.72799466095663</v>
       </c>
       <c r="K11" t="n">
-        <v>68.53441023701282</v>
+        <v>68.53441023701276</v>
       </c>
       <c r="L11" t="n">
-        <v>85.02299612611579</v>
+        <v>85.02299612611571</v>
       </c>
       <c r="M11" t="n">
-        <v>94.60446536780461</v>
+        <v>94.60446536780454</v>
       </c>
       <c r="N11" t="n">
-        <v>96.13526452337915</v>
+        <v>96.13526452337906</v>
       </c>
       <c r="O11" t="n">
-        <v>90.77780421427428</v>
+        <v>90.77780421427421</v>
       </c>
       <c r="P11" t="n">
-        <v>77.47675567815602</v>
+        <v>77.47675567815595</v>
       </c>
       <c r="Q11" t="n">
-        <v>58.18181691563509</v>
+        <v>58.18181691563504</v>
       </c>
       <c r="R11" t="n">
-        <v>33.84392871319247</v>
+        <v>33.84392871319244</v>
       </c>
       <c r="S11" t="n">
-        <v>12.27737290194613</v>
+        <v>12.27737290194612</v>
       </c>
       <c r="T11" t="n">
-        <v>2.358494783467653</v>
+        <v>2.358494783467652</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0431021319651427</v>
+        <v>0.04310213196514266</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2882709215097961</v>
+        <v>0.2882709215097958</v>
       </c>
       <c r="H12" t="n">
-        <v>2.784090215634083</v>
+        <v>2.784090215634081</v>
       </c>
       <c r="I12" t="n">
-        <v>9.925117253736399</v>
+        <v>9.92511725373639</v>
       </c>
       <c r="J12" t="n">
-        <v>27.23528035194087</v>
+        <v>27.23528035194084</v>
       </c>
       <c r="K12" t="n">
-        <v>46.5494320930972</v>
+        <v>46.54943209309716</v>
       </c>
       <c r="L12" t="n">
-        <v>62.59145600588796</v>
+        <v>62.5914560058879</v>
       </c>
       <c r="M12" t="n">
-        <v>73.04127691061804</v>
+        <v>73.04127691061798</v>
       </c>
       <c r="N12" t="n">
-        <v>74.97446216933945</v>
+        <v>74.97446216933939</v>
       </c>
       <c r="O12" t="n">
-        <v>68.58698543483291</v>
+        <v>68.58698543483285</v>
       </c>
       <c r="P12" t="n">
-        <v>55.04710254690131</v>
+        <v>55.04710254690127</v>
       </c>
       <c r="Q12" t="n">
-        <v>36.79753026149607</v>
+        <v>36.79753026149604</v>
       </c>
       <c r="R12" t="n">
-        <v>17.89808405654682</v>
+        <v>17.8980840565468</v>
       </c>
       <c r="S12" t="n">
-        <v>5.354505932429761</v>
+        <v>5.354505932429756</v>
       </c>
       <c r="T12" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067992</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01896519220459185</v>
+        <v>0.01896519220459184</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2416766569459463</v>
+        <v>0.2416766569459461</v>
       </c>
       <c r="H13" t="n">
-        <v>2.148725186301233</v>
+        <v>2.148725186301232</v>
       </c>
       <c r="I13" t="n">
-        <v>7.267876192519915</v>
+        <v>7.267876192519909</v>
       </c>
       <c r="J13" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607839</v>
       </c>
       <c r="K13" t="n">
-        <v>28.07843341608357</v>
+        <v>28.07843341608355</v>
       </c>
       <c r="L13" t="n">
-        <v>35.93072770630915</v>
+        <v>35.93072770630912</v>
       </c>
       <c r="M13" t="n">
-        <v>37.88391450653592</v>
+        <v>37.88391450653589</v>
       </c>
       <c r="N13" t="n">
-        <v>36.98311969428288</v>
+        <v>36.98311969428285</v>
       </c>
       <c r="O13" t="n">
-        <v>34.15989692905067</v>
+        <v>34.15989692905065</v>
       </c>
       <c r="P13" t="n">
-        <v>29.22969312735335</v>
+        <v>29.22969312735333</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.23712442844647</v>
+        <v>20.23712442844645</v>
       </c>
       <c r="R13" t="n">
-        <v>10.86666132049682</v>
+        <v>10.86666132049681</v>
       </c>
       <c r="S13" t="n">
-        <v>4.211765012412536</v>
+        <v>4.211765012412532</v>
       </c>
       <c r="T13" t="n">
-        <v>1.032618443314498</v>
+        <v>1.032618443314497</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01318236310614254</v>
+        <v>0.01318236310614253</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5387766495642844</v>
+        <v>0.5387766495642837</v>
       </c>
       <c r="H29" t="n">
-        <v>5.517746362350229</v>
+        <v>5.517746362350223</v>
       </c>
       <c r="I29" t="n">
-        <v>20.77118678232709</v>
+        <v>20.77118678232707</v>
       </c>
       <c r="J29" t="n">
-        <v>45.72799466095672</v>
+        <v>45.72799466095667</v>
       </c>
       <c r="K29" t="n">
-        <v>68.53441023701289</v>
+        <v>68.53441023701282</v>
       </c>
       <c r="L29" t="n">
-        <v>85.02299612611587</v>
+        <v>85.02299612611579</v>
       </c>
       <c r="M29" t="n">
-        <v>94.60446536780471</v>
+        <v>94.60446536780461</v>
       </c>
       <c r="N29" t="n">
-        <v>96.13526452337925</v>
+        <v>96.13526452337915</v>
       </c>
       <c r="O29" t="n">
-        <v>90.77780421427438</v>
+        <v>90.77780421427428</v>
       </c>
       <c r="P29" t="n">
-        <v>77.47675567815611</v>
+        <v>77.47675567815602</v>
       </c>
       <c r="Q29" t="n">
-        <v>58.18181691563515</v>
+        <v>58.18181691563509</v>
       </c>
       <c r="R29" t="n">
-        <v>33.8439287131925</v>
+        <v>33.84392871319247</v>
       </c>
       <c r="S29" t="n">
-        <v>12.27737290194614</v>
+        <v>12.27737290194613</v>
       </c>
       <c r="T29" t="n">
-        <v>2.358494783467656</v>
+        <v>2.358494783467653</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04310213196514274</v>
+        <v>0.0431021319651427</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2882709215097963</v>
+        <v>0.2882709215097961</v>
       </c>
       <c r="H30" t="n">
-        <v>2.784090215634086</v>
+        <v>2.784090215634083</v>
       </c>
       <c r="I30" t="n">
-        <v>9.92511725373641</v>
+        <v>9.925117253736399</v>
       </c>
       <c r="J30" t="n">
-        <v>27.23528035194089</v>
+        <v>27.23528035194087</v>
       </c>
       <c r="K30" t="n">
-        <v>46.54943209309724</v>
+        <v>46.5494320930972</v>
       </c>
       <c r="L30" t="n">
-        <v>62.59145600588802</v>
+        <v>62.59145600588796</v>
       </c>
       <c r="M30" t="n">
-        <v>73.04127691061812</v>
+        <v>73.04127691061804</v>
       </c>
       <c r="N30" t="n">
-        <v>74.97446216933953</v>
+        <v>74.97446216933945</v>
       </c>
       <c r="O30" t="n">
-        <v>68.58698543483298</v>
+        <v>68.58698543483291</v>
       </c>
       <c r="P30" t="n">
-        <v>55.04710254690138</v>
+        <v>55.04710254690131</v>
       </c>
       <c r="Q30" t="n">
-        <v>36.79753026149611</v>
+        <v>36.79753026149607</v>
       </c>
       <c r="R30" t="n">
-        <v>17.89808405654684</v>
+        <v>17.89808405654682</v>
       </c>
       <c r="S30" t="n">
-        <v>5.354505932429766</v>
+        <v>5.354505932429761</v>
       </c>
       <c r="T30" t="n">
-        <v>1.161934109067994</v>
+        <v>1.161934109067993</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01896519220459187</v>
+        <v>0.01896519220459185</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2416766569459466</v>
+        <v>0.2416766569459463</v>
       </c>
       <c r="H31" t="n">
-        <v>2.148725186301236</v>
+        <v>2.148725186301233</v>
       </c>
       <c r="I31" t="n">
-        <v>7.267876192519922</v>
+        <v>7.267876192519915</v>
       </c>
       <c r="J31" t="n">
-        <v>17.08653964607842</v>
+        <v>17.0865396460784</v>
       </c>
       <c r="K31" t="n">
-        <v>28.0784334160836</v>
+        <v>28.07843341608357</v>
       </c>
       <c r="L31" t="n">
-        <v>35.93072770630919</v>
+        <v>35.93072770630915</v>
       </c>
       <c r="M31" t="n">
-        <v>37.88391450653597</v>
+        <v>37.88391450653592</v>
       </c>
       <c r="N31" t="n">
-        <v>36.98311969428292</v>
+        <v>36.98311969428288</v>
       </c>
       <c r="O31" t="n">
-        <v>34.15989692905072</v>
+        <v>34.15989692905067</v>
       </c>
       <c r="P31" t="n">
-        <v>29.22969312735338</v>
+        <v>29.22969312735335</v>
       </c>
       <c r="Q31" t="n">
-        <v>20.23712442844649</v>
+        <v>20.23712442844647</v>
       </c>
       <c r="R31" t="n">
-        <v>10.86666132049683</v>
+        <v>10.86666132049682</v>
       </c>
       <c r="S31" t="n">
-        <v>4.21176501241254</v>
+        <v>4.211765012412536</v>
       </c>
       <c r="T31" t="n">
-        <v>1.032618443314499</v>
+        <v>1.032618443314498</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01318236310614256</v>
+        <v>0.01318236310614254</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>118.4537969567199</v>
       </c>
       <c r="K11" t="n">
-        <v>238.9998570709632</v>
+        <v>120.5460601142438</v>
       </c>
       <c r="L11" t="n">
         <v>436.4223628785867</v>
       </c>
       <c r="M11" t="n">
-        <v>491.8157444113278</v>
+        <v>491.8157444113277</v>
       </c>
       <c r="N11" t="n">
-        <v>478.2881520867284</v>
+        <v>478.2881520867283</v>
       </c>
       <c r="O11" t="n">
         <v>398.8632430757227</v>
       </c>
       <c r="P11" t="n">
-        <v>307.938267249927</v>
+        <v>307.9382672499269</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.567931750521</v>
+        <v>153.5679317505209</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,22 +35486,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>88.09805462780564</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>278.3580710427827</v>
       </c>
       <c r="L12" t="n">
-        <v>330.4113330401947</v>
+        <v>432.108471329237</v>
       </c>
       <c r="M12" t="n">
-        <v>562.9739572239781</v>
+        <v>562.973957223978</v>
       </c>
       <c r="N12" t="n">
-        <v>591.4044077482506</v>
+        <v>123.2511437886204</v>
       </c>
       <c r="O12" t="n">
-        <v>464.7485518834702</v>
+        <v>464.7485518834701</v>
       </c>
       <c r="P12" t="n">
         <v>360.1944957546763</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>46.62700578466126</v>
+        <v>46.62700578466122</v>
       </c>
       <c r="K13" t="n">
         <v>151.0191897391237</v>
       </c>
       <c r="L13" t="n">
-        <v>226.5511725703757</v>
+        <v>226.5511725703756</v>
       </c>
       <c r="M13" t="n">
         <v>246.066406569938</v>
       </c>
       <c r="N13" t="n">
-        <v>245.5987790526331</v>
+        <v>245.598779052633</v>
       </c>
       <c r="O13" t="n">
-        <v>222.6152580511275</v>
+        <v>222.6152580511274</v>
       </c>
       <c r="P13" t="n">
         <v>181.8313544842262</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.08228883415048</v>
+        <v>71.08228883415043</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,13 +35650,13 @@
         <v>311.1004426054802</v>
       </c>
       <c r="L14" t="n">
-        <v>245.8679803873498</v>
+        <v>436.4223628785867</v>
       </c>
       <c r="M14" t="n">
         <v>491.8157444113278</v>
       </c>
       <c r="N14" t="n">
-        <v>478.2881520867284</v>
+        <v>287.7337695954915</v>
       </c>
       <c r="O14" t="n">
         <v>398.8632430757227</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>46.62700578466126</v>
+        <v>46.62700578466118</v>
       </c>
       <c r="K16" t="n">
-        <v>151.0191897391237</v>
+        <v>151.0191897391236</v>
       </c>
       <c r="L16" t="n">
-        <v>226.5511725703757</v>
+        <v>226.5511725703756</v>
       </c>
       <c r="M16" t="n">
-        <v>246.066406569938</v>
+        <v>246.0664065699379</v>
       </c>
       <c r="N16" t="n">
-        <v>245.5987790526331</v>
+        <v>245.598779052633</v>
       </c>
       <c r="O16" t="n">
-        <v>222.6152580511275</v>
+        <v>222.6152580511274</v>
       </c>
       <c r="P16" t="n">
         <v>181.8313544842262</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.08228883415048</v>
+        <v>71.08228883415039</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>118.45379695672</v>
       </c>
       <c r="K17" t="n">
         <v>311.1004426054802</v>
@@ -35890,10 +35890,10 @@
         <v>436.4223628785867</v>
       </c>
       <c r="M17" t="n">
-        <v>419.7151588768108</v>
+        <v>491.8157444113278</v>
       </c>
       <c r="N17" t="n">
-        <v>478.2881520867284</v>
+        <v>287.7337695954915</v>
       </c>
       <c r="O17" t="n">
         <v>398.8632430757227</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>88.09805462780565</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>278.3580710427827</v>
@@ -35969,7 +35969,7 @@
         <v>432.1084713292371</v>
       </c>
       <c r="M18" t="n">
-        <v>94.82069326434731</v>
+        <v>562.9739572239781</v>
       </c>
       <c r="N18" t="n">
         <v>591.4044077482506</v>
@@ -35978,10 +35978,10 @@
         <v>464.7485518834702</v>
       </c>
       <c r="P18" t="n">
-        <v>360.1944957546763</v>
+        <v>176.3020992960581</v>
       </c>
       <c r="Q18" t="n">
-        <v>196.1628128732074</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>238.9998570709632</v>
+        <v>311.1004426054802</v>
       </c>
       <c r="L20" t="n">
         <v>436.4223628785867</v>
@@ -36139,7 +36139,7 @@
         <v>307.938267249927</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.567931750521</v>
+        <v>81.46734621600444</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>88.09805462780565</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>278.3580710427827</v>
       </c>
       <c r="L21" t="n">
-        <v>330.4113330401947</v>
+        <v>432.1084713292371</v>
       </c>
       <c r="M21" t="n">
         <v>562.9739572239781</v>
       </c>
       <c r="N21" t="n">
-        <v>591.4044077482506</v>
+        <v>123.2511437886199</v>
       </c>
       <c r="O21" t="n">
         <v>464.7485518834702</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>81.46734621600409</v>
+        <v>118.45379695672</v>
       </c>
       <c r="K23" t="n">
         <v>311.1004426054802</v>
@@ -36367,7 +36367,7 @@
         <v>491.8157444113278</v>
       </c>
       <c r="N23" t="n">
-        <v>478.2881520867284</v>
+        <v>287.7337695954915</v>
       </c>
       <c r="O23" t="n">
         <v>398.8632430757227</v>
@@ -36376,7 +36376,7 @@
         <v>307.938267249927</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>153.567931750521</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>278.3580710427827</v>
       </c>
       <c r="L24" t="n">
-        <v>432.1084713292371</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>562.9739572239781</v>
       </c>
       <c r="N24" t="n">
-        <v>319.4139566618266</v>
+        <v>555.3596151178569</v>
       </c>
       <c r="O24" t="n">
         <v>464.7485518834702</v>
@@ -36455,7 +36455,7 @@
         <v>360.1944957546763</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>196.1628128732074</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>538.921514134543</v>
       </c>
       <c r="M26" t="n">
-        <v>594.3148956672842</v>
+        <v>594.3148956672841</v>
       </c>
       <c r="N26" t="n">
         <v>580.7873033426847</v>
@@ -36610,13 +36610,13 @@
         <v>501.3623943316791</v>
       </c>
       <c r="P26" t="n">
-        <v>308.0868376601288</v>
+        <v>410.4374185058833</v>
       </c>
       <c r="Q26" t="n">
-        <v>256.0670830064773</v>
+        <v>153.7165021607227</v>
       </c>
       <c r="R26" t="n">
-        <v>46.61117633004359</v>
+        <v>46.61117633004358</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36683,7 +36683,7 @@
         <v>562.9739572239781</v>
       </c>
       <c r="N27" t="n">
-        <v>319.4139566618264</v>
+        <v>123.2511437886187</v>
       </c>
       <c r="O27" t="n">
         <v>464.7485518834702</v>
@@ -36692,7 +36692,7 @@
         <v>360.1944957546764</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>196.1628128732074</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.12902470206569</v>
+        <v>60.12902470206568</v>
       </c>
       <c r="K28" t="n">
         <v>164.5212086565282</v>
@@ -36759,7 +36759,7 @@
         <v>240.0531914877801</v>
       </c>
       <c r="M28" t="n">
-        <v>259.5684254873425</v>
+        <v>259.5684254873424</v>
       </c>
       <c r="N28" t="n">
         <v>259.1007979700375</v>
@@ -36771,7 +36771,7 @@
         <v>195.3333734016306</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.58430775155492</v>
+        <v>84.58430775155489</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>413.5995938614366</v>
       </c>
       <c r="L29" t="n">
-        <v>538.9215141345431</v>
+        <v>538.921514134543</v>
       </c>
       <c r="M29" t="n">
-        <v>594.3148956672842</v>
+        <v>594.3148956672841</v>
       </c>
       <c r="N29" t="n">
         <v>580.7873033426847</v>
       </c>
       <c r="O29" t="n">
-        <v>399.0118134859237</v>
+        <v>501.362394331679</v>
       </c>
       <c r="P29" t="n">
-        <v>410.4374185058833</v>
+        <v>354.6980139901725</v>
       </c>
       <c r="Q29" t="n">
-        <v>256.0670830064773</v>
+        <v>256.0670830064772</v>
       </c>
       <c r="R29" t="n">
-        <v>46.61117633004361</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>88.09805462780568</v>
+        <v>88.09805462780565</v>
       </c>
       <c r="K30" t="n">
-        <v>278.3580710427828</v>
+        <v>278.3580710427827</v>
       </c>
       <c r="L30" t="n">
         <v>432.1084713292371</v>
@@ -36920,16 +36920,16 @@
         <v>562.9739572239781</v>
       </c>
       <c r="N30" t="n">
-        <v>319.4139566618264</v>
+        <v>123.2511437886192</v>
       </c>
       <c r="O30" t="n">
         <v>464.7485518834702</v>
       </c>
       <c r="P30" t="n">
-        <v>360.1944957546764</v>
+        <v>360.1944957546763</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>196.1628128732074</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36996,7 +36996,7 @@
         <v>240.0531914877801</v>
       </c>
       <c r="M31" t="n">
-        <v>259.5684254873425</v>
+        <v>259.5684254873424</v>
       </c>
       <c r="N31" t="n">
         <v>259.1007979700375</v>
@@ -37008,7 +37008,7 @@
         <v>195.3333734016307</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.58430775155493</v>
+        <v>84.58430775155492</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,22 +37075,22 @@
         <v>538.921514134543</v>
       </c>
       <c r="M32" t="n">
-        <v>594.3148956672842</v>
+        <v>594.3148956672841</v>
       </c>
       <c r="N32" t="n">
         <v>580.7873033426847</v>
       </c>
       <c r="O32" t="n">
-        <v>501.3623943316791</v>
+        <v>501.362394331679</v>
       </c>
       <c r="P32" t="n">
-        <v>308.0868376601284</v>
+        <v>410.4374185058832</v>
       </c>
       <c r="Q32" t="n">
-        <v>256.0670830064773</v>
+        <v>153.7165021607231</v>
       </c>
       <c r="R32" t="n">
-        <v>46.61117633004361</v>
+        <v>46.61117633004358</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,22 +37151,22 @@
         <v>278.3580710427827</v>
       </c>
       <c r="L33" t="n">
-        <v>432.1084713292371</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>562.9739572239781</v>
       </c>
       <c r="N33" t="n">
-        <v>319.4139566618264</v>
+        <v>591.4044077482506</v>
       </c>
       <c r="O33" t="n">
         <v>464.7485518834702</v>
       </c>
       <c r="P33" t="n">
-        <v>360.1944957546763</v>
+        <v>324.1497031242822</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>196.1628128732074</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.12902470206572</v>
+        <v>60.12902470206603</v>
       </c>
       <c r="K34" t="n">
         <v>164.5212086565282</v>
@@ -37233,19 +37233,19 @@
         <v>240.0531914877801</v>
       </c>
       <c r="M34" t="n">
-        <v>259.5684254873425</v>
+        <v>259.5684254873424</v>
       </c>
       <c r="N34" t="n">
         <v>259.1007979700375</v>
       </c>
       <c r="O34" t="n">
-        <v>236.1172769685311</v>
+        <v>236.1172769685319</v>
       </c>
       <c r="P34" t="n">
-        <v>195.3333734016307</v>
+        <v>195.3333734016306</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.58430775155493</v>
+        <v>84.5843077515549</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,7 +37391,7 @@
         <v>432.1084713292371</v>
       </c>
       <c r="M36" t="n">
-        <v>290.9835061375535</v>
+        <v>94.82069326434593</v>
       </c>
       <c r="N36" t="n">
         <v>591.4044077482506</v>
@@ -37403,7 +37403,7 @@
         <v>360.1944957546763</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>196.1628128732074</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>307.938267249927</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.567931750521</v>
+        <v>153.5679317505211</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,16 +37622,16 @@
         <v>88.09805462780565</v>
       </c>
       <c r="K39" t="n">
-        <v>278.3580710427827</v>
+        <v>242.3132784123877</v>
       </c>
       <c r="L39" t="n">
-        <v>432.1084713292371</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>562.9739572239781</v>
       </c>
       <c r="N39" t="n">
-        <v>123.2511437886185</v>
+        <v>591.4044077482506</v>
       </c>
       <c r="O39" t="n">
         <v>464.7485518834702</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>88.09805462780565</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>278.3580710427827</v>
       </c>
       <c r="L42" t="n">
         <v>432.1084713292371</v>
@@ -37868,13 +37868,13 @@
         <v>562.9739572239781</v>
       </c>
       <c r="N42" t="n">
-        <v>591.4044077482506</v>
+        <v>123.2511437886185</v>
       </c>
       <c r="O42" t="n">
         <v>464.7485518834702</v>
       </c>
       <c r="P42" t="n">
-        <v>258.4973574656327</v>
+        <v>360.1944957546763</v>
       </c>
       <c r="Q42" t="n">
         <v>196.1628128732074</v>
@@ -38035,7 +38035,7 @@
         <v>307.938267249927</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.5679317505215</v>
+        <v>153.567931750521</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>88.09805462780565</v>
       </c>
       <c r="K45" t="n">
         <v>278.3580710427827</v>
       </c>
       <c r="L45" t="n">
-        <v>248.2160748706183</v>
+        <v>432.1084713292371</v>
       </c>
       <c r="M45" t="n">
         <v>562.9739572239781</v>
       </c>
       <c r="N45" t="n">
-        <v>591.4044077482506</v>
+        <v>483.4456395432949</v>
       </c>
       <c r="O45" t="n">
         <v>464.7485518834702</v>
       </c>
       <c r="P45" t="n">
-        <v>360.1944957546763</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>196.1628128732074</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
